--- a/fechamento_2021/fechamento_fevereiro/esus_covisa_biofast_fev_13042022_abertos_descartados_2.xlsx
+++ b/fechamento_2021/fechamento_fevereiro/esus_covisa_biofast_fev_13042022_abertos_descartados_2.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_fevereiro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC1E9F-75BB-4B95-A61B-C821B18D9E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{16664A8D-960E-4357-8908-5AA38077238D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Descartados1" sheetId="1" r:id="rId1"/>
     <sheet name="Descartados2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Descartados1!$A$1:$BI$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descartados2!$A$1:$BI$187</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1764,7 +1762,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1858,7 +1856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1910,7 +1908,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2104,18 +2102,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01809D-3FE5-4F66-A5A7-4DA7D6CCC4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9144,16 +9142,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BI150"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BABD9C3-FFCD-4522-BBAB-D3F20E78A3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17437,6 +17436,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BI187"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/fechamento_2021/fechamento_fevereiro/esus_covisa_biofast_fev_13042022_abertos_descartados_2.xlsx
+++ b/fechamento_2021/fechamento_fevereiro/esus_covisa_biofast_fev_13042022_abertos_descartados_2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_fevereiro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67C5EE-5CFF-4816-BEC2-6B91ADC16235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descartados1" sheetId="1" r:id="rId1"/>
@@ -12,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Descartados1!$A$1:$BI$150</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descartados2!$A$1:$BI$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descartados2!$A$1:$BI$101</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="461">
   <si>
     <t>NU_NOTIFIC</t>
   </si>
@@ -982,249 +988,33 @@
     <t>CAMILA ARLOCHI</t>
   </si>
   <si>
-    <t>DORIEDSON FLORIANO DE MORAES</t>
-  </si>
-  <si>
     <t>Tosse, Dor de Garganta, Coriza</t>
   </si>
   <si>
-    <t>THATIANE CORDEIRO DE JESUS</t>
-  </si>
-  <si>
-    <t>Outros, Dispneia, Dor de Cabeca</t>
-  </si>
-  <si>
-    <t>Coriza, Dor de Cabeca, Febre, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>ANA SHEILA RODRIGUES FACCHINI</t>
-  </si>
-  <si>
     <t>Não Reagente</t>
   </si>
   <si>
-    <t>CARLOS EDUARDO FERREIRA SALES</t>
-  </si>
-  <si>
     <t>Tosse, Dor de Cabeca</t>
   </si>
   <si>
-    <t>ANDREY FERREIRA FERNANDES IGNACIO</t>
-  </si>
-  <si>
-    <t>Febre, Coriza</t>
-  </si>
-  <si>
-    <t>DAMARES ACURCCIO GARRIDO</t>
-  </si>
-  <si>
-    <t>LADYANE ARAUJO TINI</t>
-  </si>
-  <si>
-    <t>KATHLEEN CHABARIBERY LIBORIO PIRES</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Outros, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>GLEYSON LUIZ DA SILVA</t>
-  </si>
-  <si>
-    <t>LUCAS SOUZA AGUIAR</t>
-  </si>
-  <si>
     <t>Febre, Dor de Garganta</t>
   </si>
   <si>
-    <t>KLAUS OTI DE ORNELAS</t>
-  </si>
-  <si>
     <t>Coriza, Outros</t>
   </si>
   <si>
-    <t>SONIA MARIA AGUIAR</t>
-  </si>
-  <si>
     <t>Dispneia, Tosse</t>
   </si>
   <si>
-    <t>NELI DE OLIVEIRA PANTALEAO</t>
-  </si>
-  <si>
-    <t>CRISTINA APARECIDA BARBOSA</t>
-  </si>
-  <si>
     <t>Febre, Dor de Cabeca, Coriza</t>
   </si>
   <si>
-    <t>TANIA ELIZABETE RODRIGUES DA SILVA</t>
-  </si>
-  <si>
-    <t>EDIMILSON SANTANA ARAUJO</t>
-  </si>
-  <si>
-    <t>JANIEL ALEX AZEVEDO DE SOUZA</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Outros, Dor de Garganta, Febre</t>
-  </si>
-  <si>
-    <t>RAFAEL GONCALVES PIFER LEME</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Coriza, Outros</t>
-  </si>
-  <si>
-    <t>JULIA MARI NIVAES SANTANA</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO ROCHA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DIONE CAVALCANTE BARROS</t>
-  </si>
-  <si>
-    <t>PAULA RENATA QUERINO PORTELLA</t>
-  </si>
-  <si>
-    <t>HEITOR NUNES MOREIRA</t>
-  </si>
-  <si>
-    <t>CUSTODIO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>BRUNA DANITHELLY LOPES ESTEVES</t>
-  </si>
-  <si>
-    <t>CLAUDIO LUIZ AMARAL AIDAR</t>
-  </si>
-  <si>
-    <t>VICTOR GABRIEL CASTRO PEDRO</t>
-  </si>
-  <si>
-    <t>Dispneia, Febre, Tosse, Dor de Cabeca</t>
-  </si>
-  <si>
-    <t>JOSE WENCESLAU DE MARINS</t>
-  </si>
-  <si>
-    <t>VICTOR ELIAS BUENO</t>
-  </si>
-  <si>
-    <t>Tosse, Febre, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>DOUGLAS COMINO</t>
-  </si>
-  <si>
-    <t>Tosse, Dor de Garganta, Outros, Coriza</t>
-  </si>
-  <si>
-    <t>THIAGO ELIAS BUENO</t>
-  </si>
-  <si>
-    <t>MAURICIO MARTINS NOBRE DOS SANTOS JUNIOR</t>
-  </si>
-  <si>
-    <t>Coriza, Dor de Garganta, Outros</t>
-  </si>
-  <si>
-    <t>IVANI GONZAGA DOS SANTOS COSTA</t>
-  </si>
-  <si>
-    <t>CLAUDIO SCARAMUZZA</t>
-  </si>
-  <si>
-    <t>FLAVIO FERREIRA MARQUES</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Dor de Garganta, Outros</t>
-  </si>
-  <si>
-    <t>DANIELE DOS SANTOS PASCOAL</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Febre, Outros</t>
-  </si>
-  <si>
-    <t>CAMILA VITORIA DO NASCIMENTO SILVA</t>
-  </si>
-  <si>
-    <t>JOSE PEDRO VIEIRA</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Tosse, Outros</t>
-  </si>
-  <si>
-    <t>YASMIM DA SILVA BARROS</t>
-  </si>
-  <si>
     <t>Dor de Garganta, Febre, Tosse, Coriza</t>
   </si>
   <si>
-    <t>IVONE DIONIZIA DA SILVA RAMOS</t>
-  </si>
-  <si>
-    <t>THAIS APARECIDA GONCALVES MARIANO</t>
-  </si>
-  <si>
-    <t>MARIA JOSE DE JESUS</t>
-  </si>
-  <si>
-    <t>VALDOMIRO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>IASMIN MENDES MAZO</t>
-  </si>
-  <si>
     <t>Tosse, Coriza</t>
   </si>
   <si>
-    <t>MIGUEL GONCALVES DA SILVA</t>
-  </si>
-  <si>
-    <t>MATHEUS CANDIDO FERREIRA</t>
-  </si>
-  <si>
-    <t>HILLARY BASSETTO SILVA MARCELINO</t>
-  </si>
-  <si>
-    <t>Febre, Tosse, Dispneia</t>
-  </si>
-  <si>
-    <t>HELOISA CORDEIRO DO PRADO</t>
-  </si>
-  <si>
-    <t>MAYCON FERREIRA PENA</t>
-  </si>
-  <si>
-    <t>Coriza, Tosse, Febre, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>MILENA KENTINO VENTURA</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Tosse, Outros</t>
-  </si>
-  <si>
-    <t>LETICIA MAYARA DIAS DA SILVA</t>
-  </si>
-  <si>
-    <t>ALESSANDRA DE SOUZA MARTINS</t>
-  </si>
-  <si>
-    <t>Outros, Dispneia</t>
-  </si>
-  <si>
-    <t>CASSIO ARAUJO GOES DE SOUSA</t>
-  </si>
-  <si>
-    <t>ISAAC RODRIGUES DONOLA</t>
-  </si>
-  <si>
-    <t>Coriza, Febre, Outros</t>
-  </si>
-  <si>
     <t>MARIA GENI DE MELO SILVA</t>
   </si>
   <si>
@@ -1246,18 +1036,9 @@
     <t>Dor de Garganta, Tosse, Dor de Cabeca, Coriza</t>
   </si>
   <si>
-    <t>AMANDA CARVALHO MARTINS</t>
-  </si>
-  <si>
     <t>YNGRIDI SANTOS SILVA</t>
   </si>
   <si>
-    <t>CINTIA DAS GRACAS REIS AMARO</t>
-  </si>
-  <si>
-    <t>BRENDA PAIXAO CORREA</t>
-  </si>
-  <si>
     <t>GABRIEL MANOEL HENRIQUE MACEDO</t>
   </si>
   <si>
@@ -1267,24 +1048,12 @@
     <t>Coriza, Tosse, Outros</t>
   </si>
   <si>
-    <t>AMABILE LOPES DOS REIS</t>
-  </si>
-  <si>
-    <t>Febre, Dor de Cabeca, Outros, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>BEATRIZ MORAES PEDROSA</t>
-  </si>
-  <si>
     <t>LEONARDO GUEDES LEAO</t>
   </si>
   <si>
     <t>JOSE BERNANRDES BORGES</t>
   </si>
   <si>
-    <t>ADELINA NAZARE ANTONIOLLI</t>
-  </si>
-  <si>
     <t>GLAUCE ROSIANE ALMEIDA CARDOSO</t>
   </si>
   <si>
@@ -1330,15 +1099,6 @@
     <t>RAFAEL SOUZA MENDES</t>
   </si>
   <si>
-    <t>BIANCA FERREIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Febre</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO SANCHEZ URBINA</t>
-  </si>
-  <si>
     <t>GIOVANNA R X DA SILVA</t>
   </si>
   <si>
@@ -1357,9 +1117,6 @@
     <t>LUANA SOUZA DOS SANTOS</t>
   </si>
   <si>
-    <t>DANIEL AUGUSTO NEVES VIEIRA</t>
-  </si>
-  <si>
     <t>MARIA LUCIMAR DANTAS DE ANDRADE</t>
   </si>
   <si>
@@ -1375,21 +1132,9 @@
     <t>ELIANA FABRIS</t>
   </si>
   <si>
-    <t>ALLAN LEMOS DA COSTA</t>
-  </si>
-  <si>
-    <t>ADAIR DA PAIXAO AZEVEDO</t>
-  </si>
-  <si>
     <t>Dor de Garganta</t>
   </si>
   <si>
-    <t>ALEX MARQUES DE SOUZA</t>
-  </si>
-  <si>
-    <t>Tosse, Coriza, Febre, Dor de Garganta</t>
-  </si>
-  <si>
     <t>ELIANA APARECIDA SILVEIRA DAMASIO</t>
   </si>
   <si>
@@ -1402,12 +1147,6 @@
     <t>EDIVAR VENCIGUERRA</t>
   </si>
   <si>
-    <t>AUGUSTO CEZAR PIMENTA VALE</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Dor de Cabeca, Tosse</t>
-  </si>
-  <si>
     <t>GEOVANNA MARIA SARAIVA PINHEIRO</t>
   </si>
   <si>
@@ -1441,21 +1180,9 @@
     <t>SYLVIO MONTEIRO LEONARDO</t>
   </si>
   <si>
-    <t>BRUNA CRUZ FERREIRA</t>
-  </si>
-  <si>
     <t>VINICIUS CARVALHO CUNHA</t>
   </si>
   <si>
-    <t>CELSO VARANDAS</t>
-  </si>
-  <si>
-    <t>Dispneia, Tosse, Outros</t>
-  </si>
-  <si>
-    <t>DANIELA OLIVEIRA DOS SANTOS</t>
-  </si>
-  <si>
     <t>HELOISA MOREIRA ALVES DE BRITO</t>
   </si>
   <si>
@@ -1483,36 +1210,18 @@
     <t>Coriza, Dor de Cabeca, Dor de Garganta, Outros</t>
   </si>
   <si>
-    <t>CAMILA APARECIDA FERNANDES FIGUEREDO</t>
-  </si>
-  <si>
-    <t>Febre, Dor de Cabeca, Dispneia, Outros</t>
-  </si>
-  <si>
     <t>MARIA EDUARDA DA SILVA</t>
   </si>
   <si>
-    <t>CINTIA DA SILVA MOTTA</t>
-  </si>
-  <si>
-    <t>Febre, Dispneia, Dor de Garganta, Outros</t>
-  </si>
-  <si>
     <t>JANETE MARIA MODESTO</t>
   </si>
   <si>
     <t>Coriza, Dispneia, Tosse</t>
   </si>
   <si>
-    <t>CLARICE MIGUEL DA SILVA</t>
-  </si>
-  <si>
     <t>MURILO DE ANDRADE MATOS</t>
   </si>
   <si>
-    <t>CLAUDIO AURELIO BINOTTI DE ARAUJO</t>
-  </si>
-  <si>
     <t>HELOISE MARIANA PINHEIRO DE JESUS</t>
   </si>
   <si>
@@ -1528,9 +1237,6 @@
     <t>GABRIEL HARIEL DE OLIVEIRA</t>
   </si>
   <si>
-    <t>BELKIS XIOMARA BUSTAMANTE TORRES</t>
-  </si>
-  <si>
     <t>RODRIGO DE SOUZA ROQUE</t>
   </si>
   <si>
@@ -1561,12 +1267,6 @@
     <t>JANICE DOS SANTOS</t>
   </si>
   <si>
-    <t>BERNARDO BELCHIOR DA SILVA</t>
-  </si>
-  <si>
-    <t>CAROLINA CHAVIER DE JESUS</t>
-  </si>
-  <si>
     <t>THAIS FRANCA AMARAL DA SILVA</t>
   </si>
   <si>
@@ -1609,15 +1309,6 @@
     <t>Tosse, Dor de Cabeca, Dispneia, Outros</t>
   </si>
   <si>
-    <t>ADRIANA CRISTINA PAES SILVA</t>
-  </si>
-  <si>
-    <t>DANIEL PAES SILVA DESC</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Tosse, Febre, Outros, Dispneia</t>
-  </si>
-  <si>
     <t>MARIA SALETE DA SILVA</t>
   </si>
   <si>
@@ -1654,18 +1345,9 @@
     <t>Outros, Tosse, Dispneia</t>
   </si>
   <si>
-    <t>ANA CLAUDIA DE BRITO ASPRINO</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Febre, Dor de Cabeca</t>
-  </si>
-  <si>
     <t>VIVIANE NUNES DA SILVA</t>
   </si>
   <si>
-    <t>AKITOSHI SHIROMA</t>
-  </si>
-  <si>
     <t>MELISSA AMORIM SILVA</t>
   </si>
   <si>
@@ -1684,12 +1366,6 @@
     <t>Dispneia, Dor de Cabeca, Tosse</t>
   </si>
   <si>
-    <t>ADELMA CEZAR ALVES</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Febre, Dispneia</t>
-  </si>
-  <si>
     <t>DIRCE NOGUEIRA DE OLIVEIRA</t>
   </si>
   <si>
@@ -1705,21 +1381,12 @@
     <t>JESSICA DA SILVA EZEQUIEL</t>
   </si>
   <si>
-    <t>CARLOS ALVES DE PAULO</t>
-  </si>
-  <si>
-    <t>Dispneia, Febre, Outros</t>
-  </si>
-  <si>
     <t>UILTON SANTOS DE JESUS</t>
   </si>
   <si>
     <t>NATHALIA SILVA DE ALMEIDA</t>
   </si>
   <si>
-    <t>BIANCA DE ARRUDA</t>
-  </si>
-  <si>
     <t>IZAIDA MARIA PACHECO</t>
   </si>
   <si>
@@ -1742,9 +1409,6 @@
   </si>
   <si>
     <t>DJALMA DE FREITAS COELHO</t>
-  </si>
-  <si>
-    <t>BARBARA CARDOSO COSTA</t>
   </si>
   <si>
     <t>WAGNER MAGALHAES FERREIRA ARAUJO</t>
@@ -1762,7 +1426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1856,7 +1520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1908,7 +1572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2102,17 +1766,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -9142,63 +8806,82 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI150"/>
+  <autoFilter ref="A1:BI150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BI101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -9388,37 +9071,31 @@
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>352166976036</v>
+        <v>352168806320</v>
       </c>
       <c r="B2" s="2">
-        <v>44242</v>
+        <v>44254</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>425</v>
       </c>
       <c r="D2" s="2">
-        <v>25987</v>
+        <v>34430</v>
       </c>
       <c r="E2" s="2">
-        <v>44241</v>
+        <v>44245</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44242</v>
+        <v>426</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AL2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="s">
         <v>73</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>44242</v>
       </c>
       <c r="BH2" t="s">
         <v>68</v>
@@ -9429,52 +9106,37 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352166978460</v>
+        <v>352167682805</v>
       </c>
       <c r="B3" s="2">
+        <v>44246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35599</v>
+      </c>
+      <c r="E3" s="2">
         <v>44243</v>
       </c>
-      <c r="C3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29860</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44221</v>
-      </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2">
-        <v>44241</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
+        <v>44246</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s">
         <v>73</v>
       </c>
       <c r="AN3" s="2">
-        <v>44241</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>44260</v>
+        <v>44246</v>
       </c>
       <c r="BH3" t="s">
         <v>68</v>
@@ -9485,25 +9147,22 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>352166998268</v>
+        <v>352167733143</v>
       </c>
       <c r="B4" s="2">
+        <v>44247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41551</v>
+      </c>
+      <c r="E4" s="2">
         <v>44243</v>
       </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="2">
-        <v>26104</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44237</v>
-      </c>
       <c r="F4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44243</v>
+        <v>348</v>
       </c>
       <c r="L4" t="s">
         <v>81</v>
@@ -9513,9 +9172,6 @@
       </c>
       <c r="AM4" t="s">
         <v>73</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>44243</v>
       </c>
       <c r="BH4" t="s">
         <v>68</v>
@@ -9526,46 +9182,73 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352167005483</v>
+        <v>352168626349</v>
       </c>
       <c r="B5" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="D5" s="2">
-        <v>44235</v>
+        <v>31482</v>
       </c>
       <c r="E5" s="2">
         <v>44243</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>322</v>
+        <v>223</v>
+      </c>
+      <c r="S5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="2">
+        <v>44257</v>
+      </c>
+      <c r="U5" t="s">
+        <v>317</v>
+      </c>
+      <c r="V5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="2">
+        <v>44257</v>
+      </c>
+      <c r="X5" t="s">
+        <v>317</v>
       </c>
       <c r="AL5" t="s">
         <v>63</v>
       </c>
       <c r="AM5" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AN5" s="2">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="AO5" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>44257</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>87</v>
       </c>
       <c r="BE5" t="s">
-        <v>67</v>
+        <v>147</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>44267</v>
       </c>
       <c r="BH5" t="s">
         <v>68</v>
@@ -9576,52 +9259,37 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>352167010555</v>
+        <v>352168691736</v>
       </c>
       <c r="B6" s="2">
-        <v>44242</v>
+        <v>44253</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="D6" s="2">
-        <v>37090</v>
+        <v>27742</v>
       </c>
       <c r="E6" s="2">
-        <v>44240</v>
+        <v>44245</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="J6" s="2">
-        <v>44242</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
+        <v>44253</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s">
         <v>73</v>
       </c>
       <c r="AN6" s="2">
-        <v>44242</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>44453</v>
+        <v>44253</v>
       </c>
       <c r="BH6" t="s">
         <v>68</v>
@@ -9632,31 +9300,37 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352167024046</v>
+        <v>352168812402</v>
       </c>
       <c r="B7" s="2">
-        <v>44243</v>
+        <v>44254</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="D7" s="2">
-        <v>43831</v>
+        <v>23204</v>
       </c>
       <c r="E7" s="2">
-        <v>44238</v>
+        <v>44251</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>44242</v>
+        <v>167</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>44254</v>
       </c>
       <c r="BH7" t="s">
         <v>68</v>
@@ -9667,52 +9341,52 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>352167029567</v>
+        <v>352168831868</v>
       </c>
       <c r="B8" s="2">
-        <v>44243</v>
+        <v>44254</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="D8" s="2">
-        <v>29872</v>
+        <v>15885</v>
       </c>
       <c r="E8" s="2">
-        <v>44220</v>
+        <v>44240</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44224</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
+        <v>318</v>
+      </c>
+      <c r="S8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="2">
+        <v>44254</v>
+      </c>
+      <c r="V8" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="2">
+        <v>44254</v>
       </c>
       <c r="AL8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AN8" s="2">
-        <v>44224</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>44258</v>
+        <v>44254</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>44254</v>
       </c>
       <c r="BH8" t="s">
         <v>68</v>
@@ -9723,52 +9397,43 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>352167031006</v>
+        <v>4120067262625</v>
       </c>
       <c r="B9" s="2">
+        <v>44244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="2">
+        <v>25832</v>
+      </c>
+      <c r="E9" s="2">
         <v>44243</v>
-      </c>
-      <c r="C9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="2">
-        <v>34190</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44228</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="2">
-        <v>44228</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
+      <c r="AE9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>64</v>
       </c>
       <c r="AL9" t="s">
         <v>63</v>
       </c>
       <c r="AM9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN9" s="2">
-        <v>44228</v>
+        <v>44243</v>
       </c>
       <c r="AO9" t="s">
         <v>64</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF9" s="2">
-        <v>44433</v>
       </c>
       <c r="BH9" t="s">
         <v>68</v>
@@ -9779,52 +9444,37 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352167036808</v>
+        <v>352168523015</v>
       </c>
       <c r="B10" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24050</v>
+      </c>
+      <c r="E10" s="2">
         <v>44243</v>
       </c>
-      <c r="C10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30050</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44183</v>
-      </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J10" s="2">
-        <v>44187</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
+        <v>44252</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s">
         <v>73</v>
       </c>
       <c r="AN10" s="2">
-        <v>44187</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF10" s="2">
-        <v>44258</v>
+        <v>44252</v>
       </c>
       <c r="BH10" t="s">
         <v>68</v>
@@ -9835,25 +9485,25 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352167047592</v>
+        <v>352168796747</v>
       </c>
       <c r="B11" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="D11" s="2">
-        <v>31950</v>
+        <v>31496</v>
       </c>
       <c r="E11" s="2">
-        <v>44240</v>
+        <v>44252</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="J11" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="L11" t="s">
         <v>81</v>
@@ -9865,7 +9515,7 @@
         <v>73</v>
       </c>
       <c r="AN11" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="BH11" t="s">
         <v>68</v>
@@ -9876,22 +9526,46 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>352167050314</v>
+        <v>352168515055</v>
       </c>
       <c r="B12" s="2">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="D12" s="2">
-        <v>36304</v>
+        <v>23448</v>
       </c>
       <c r="E12" s="2">
-        <v>44241</v>
+        <v>44245</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>366</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44252</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>44252</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>67</v>
       </c>
       <c r="BH12" t="s">
         <v>68</v>
@@ -9902,52 +9576,22 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>352167059708</v>
+        <v>352168395298</v>
       </c>
       <c r="B13" s="2">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="D13" s="2">
-        <v>35436</v>
+        <v>26697</v>
       </c>
       <c r="E13" s="2">
-        <v>44239</v>
+        <v>44249</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF13" s="2">
-        <v>44258</v>
+        <v>241</v>
       </c>
       <c r="BH13" t="s">
         <v>68</v>
@@ -9958,52 +9602,22 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>352167060398</v>
+        <v>352168795032</v>
       </c>
       <c r="B14" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="D14" s="2">
-        <v>27995</v>
+        <v>21253</v>
       </c>
       <c r="E14" s="2">
-        <v>44235</v>
+        <v>44247</v>
       </c>
       <c r="F14" t="s">
-        <v>337</v>
-      </c>
-      <c r="J14" s="2">
-        <v>44239</v>
-      </c>
-      <c r="K14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>44239</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF14" s="2">
-        <v>44243</v>
+        <v>411</v>
       </c>
       <c r="BH14" t="s">
         <v>68</v>
@@ -10014,64 +9628,52 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>352167079843</v>
+        <v>352168517435</v>
       </c>
       <c r="B15" s="2">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="D15" s="2">
-        <v>15273</v>
+        <v>25815</v>
       </c>
       <c r="E15" s="2">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="2">
-        <v>44243</v>
-      </c>
-      <c r="U15" t="s">
-        <v>322</v>
-      </c>
-      <c r="V15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="2">
-        <v>44243</v>
-      </c>
-      <c r="X15" t="s">
-        <v>322</v>
+        <v>223</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44252</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
       </c>
       <c r="AL15" t="s">
         <v>63</v>
       </c>
       <c r="AM15" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AN15" s="2">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="AO15" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>322</v>
+        <v>64</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>44263</v>
       </c>
       <c r="BH15" t="s">
         <v>68</v>
@@ -10082,25 +9684,25 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>352167082622</v>
+        <v>352168689818</v>
       </c>
       <c r="B16" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="D16" s="2">
-        <v>27589</v>
+        <v>26628</v>
       </c>
       <c r="E16" s="2">
-        <v>44240</v>
+        <v>44250</v>
       </c>
       <c r="F16" t="s">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c r="J16" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="L16" t="s">
         <v>81</v>
@@ -10112,7 +9714,7 @@
         <v>73</v>
       </c>
       <c r="AN16" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="BH16" t="s">
         <v>68</v>
@@ -10123,52 +9725,37 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>352167111980</v>
+        <v>352168756918</v>
       </c>
       <c r="B17" s="2">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="D17" s="2">
-        <v>29306</v>
+        <v>35866</v>
       </c>
       <c r="E17" s="2">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>44237</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>64</v>
+        <v>269</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44252</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
       </c>
       <c r="AL17" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AN17" s="2">
-        <v>44237</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF17" s="2">
-        <v>44260</v>
+        <v>44252</v>
       </c>
       <c r="BH17" t="s">
         <v>68</v>
@@ -10179,52 +9766,31 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>352167118933</v>
+        <v>352167627891</v>
       </c>
       <c r="B18" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D18" s="2">
-        <v>33042</v>
+        <v>38601</v>
       </c>
       <c r="E18" s="2">
-        <v>44234</v>
+        <v>44242</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>44242</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>64</v>
+        <v>200</v>
+      </c>
+      <c r="L18" t="s">
+        <v>81</v>
       </c>
       <c r="AL18" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>44242</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>44258</v>
+        <v>73</v>
       </c>
       <c r="BH18" t="s">
         <v>68</v>
@@ -10235,22 +9801,43 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>352167123598</v>
+        <v>4120068537474</v>
       </c>
       <c r="B19" s="2">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="C19" t="s">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="D19" s="2">
-        <v>37356</v>
+        <v>24473</v>
       </c>
       <c r="E19" s="2">
-        <v>44241</v>
+        <v>44251</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>62</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>44251</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>44251</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>64</v>
       </c>
       <c r="BH19" t="s">
         <v>68</v>
@@ -10261,22 +9848,46 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>352167124141</v>
+        <v>352168586265</v>
       </c>
       <c r="B20" s="2">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="D20" s="2">
-        <v>35719</v>
+        <v>32862</v>
       </c>
       <c r="E20" s="2">
-        <v>44235</v>
+        <v>44249</v>
       </c>
       <c r="F20" t="s">
-        <v>346</v>
+        <v>370</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44252</v>
+      </c>
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>44252</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>371</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>44566</v>
       </c>
       <c r="BH20" t="s">
         <v>68</v>
@@ -10287,22 +9898,31 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>352167125144</v>
+        <v>352168110203</v>
       </c>
       <c r="B21" s="2">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c r="C21" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D21" s="2">
-        <v>8239</v>
+        <v>36222</v>
       </c>
       <c r="E21" s="2">
-        <v>44240</v>
+        <v>44249</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>73</v>
       </c>
       <c r="BH21" t="s">
         <v>68</v>
@@ -10313,37 +9933,37 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>352167125561</v>
+        <v>352167650701</v>
       </c>
       <c r="B22" s="2">
+        <v>44245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32576</v>
+      </c>
+      <c r="E22" s="2">
         <v>44243</v>
       </c>
-      <c r="C22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43811</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44230</v>
-      </c>
       <c r="F22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>44243</v>
+        <v>310</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44245</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
       </c>
       <c r="AL22" t="s">
         <v>81</v>
       </c>
       <c r="AM22" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AN22" s="2">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="BH22" t="s">
         <v>68</v>
@@ -10354,37 +9974,52 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>352167153985</v>
+        <v>352168779186</v>
       </c>
       <c r="B23" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="D23" s="2">
-        <v>27492</v>
+        <v>41019</v>
       </c>
       <c r="E23" s="2">
-        <v>44240</v>
+        <v>44253</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="2">
-        <v>44243</v>
-      </c>
-      <c r="L23" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>44253</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>64</v>
       </c>
       <c r="AL23" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AN23" s="2">
-        <v>44243</v>
+        <v>44253</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>44319</v>
       </c>
       <c r="BH23" t="s">
         <v>68</v>
@@ -10395,52 +10030,31 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>352167154597</v>
+        <v>352168686180</v>
       </c>
       <c r="B24" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="C24" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="D24" s="2">
-        <v>29758</v>
+        <v>43080</v>
       </c>
       <c r="E24" s="2">
-        <v>44240</v>
+        <v>44248</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="2">
-        <v>44242</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>44242</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="BD24" t="s">
         <v>87</v>
       </c>
       <c r="BE24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="BF24" s="2">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="BH24" t="s">
         <v>68</v>
@@ -10451,25 +10065,25 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>352167190253</v>
+        <v>352168748560</v>
       </c>
       <c r="B25" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C25" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="D25" s="2">
-        <v>43308</v>
+        <v>40332</v>
       </c>
       <c r="E25" s="2">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="J25" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="L25" t="s">
         <v>81</v>
@@ -10481,7 +10095,7 @@
         <v>73</v>
       </c>
       <c r="AN25" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="BH25" t="s">
         <v>68</v>
@@ -10492,22 +10106,37 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>352167209869</v>
+        <v>352168835721</v>
       </c>
       <c r="B26" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="C26" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="D26" s="2">
-        <v>14286</v>
+        <v>19176</v>
       </c>
       <c r="E26" s="2">
-        <v>44234</v>
+        <v>44251</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>444</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>44254</v>
       </c>
       <c r="BH26" t="s">
         <v>68</v>
@@ -10518,37 +10147,37 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>352167214949</v>
+        <v>352167544321</v>
       </c>
       <c r="B27" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="C27" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D27" s="2">
-        <v>36575</v>
+        <v>28246</v>
       </c>
       <c r="E27" s="2">
-        <v>44216</v>
+        <v>44238</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="2">
-        <v>44216</v>
-      </c>
-      <c r="L27" t="s">
-        <v>81</v>
+        <v>324</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>44245</v>
       </c>
       <c r="AL27" t="s">
         <v>81</v>
       </c>
       <c r="AM27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AN27" s="2">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="BH27" t="s">
         <v>68</v>
@@ -10559,37 +10188,43 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>352167219023</v>
+        <v>4120066035058</v>
       </c>
       <c r="B28" s="2">
-        <v>44243</v>
+        <v>44238</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="D28" s="2">
-        <v>30019</v>
+        <v>20217</v>
       </c>
       <c r="E28" s="2">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="2">
-        <v>44243</v>
-      </c>
-      <c r="L28" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>44237</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>64</v>
       </c>
       <c r="AL28" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM28" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN28" s="2">
-        <v>44243</v>
+        <v>44237</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>64</v>
       </c>
       <c r="BH28" t="s">
         <v>68</v>
@@ -10600,25 +10235,25 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>352167220867</v>
+        <v>352168814162</v>
       </c>
       <c r="B29" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="D29" s="2">
-        <v>35085</v>
+        <v>32017</v>
       </c>
       <c r="E29" s="2">
-        <v>44241</v>
+        <v>44251</v>
       </c>
       <c r="F29" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="J29" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="L29" t="s">
         <v>81</v>
@@ -10630,7 +10265,7 @@
         <v>73</v>
       </c>
       <c r="AN29" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="BH29" t="s">
         <v>68</v>
@@ -10641,46 +10276,37 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>352167234552</v>
+        <v>352168730544</v>
       </c>
       <c r="B30" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="D30" s="2">
-        <v>19716</v>
+        <v>25717</v>
       </c>
       <c r="E30" s="2">
-        <v>44243</v>
+        <v>44250</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>322</v>
+        <v>392</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>81</v>
       </c>
       <c r="AL30" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="AN30" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>67</v>
+        <v>44253</v>
       </c>
       <c r="BH30" t="s">
         <v>68</v>
@@ -10691,37 +10317,22 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>352167235138</v>
+        <v>352168786227</v>
       </c>
       <c r="B31" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D31" s="2">
-        <v>39599</v>
+        <v>15018</v>
       </c>
       <c r="E31" s="2">
-        <v>44240</v>
+        <v>44249</v>
       </c>
       <c r="F31" t="s">
-        <v>359</v>
-      </c>
-      <c r="J31" s="2">
-        <v>44242</v>
-      </c>
-      <c r="L31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>44242</v>
+        <v>133</v>
       </c>
       <c r="BH31" t="s">
         <v>68</v>
@@ -10732,67 +10343,31 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>352167242387</v>
+        <v>352168201954</v>
       </c>
       <c r="B32" s="2">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c r="C32" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D32" s="2">
-        <v>19976</v>
+        <v>35092</v>
       </c>
       <c r="E32" s="2">
-        <v>44233</v>
+        <v>44246</v>
       </c>
       <c r="F32" t="s">
-        <v>361</v>
-      </c>
-      <c r="S32" t="s">
-        <v>63</v>
-      </c>
-      <c r="T32" s="2">
-        <v>44244</v>
-      </c>
-      <c r="U32" t="s">
-        <v>322</v>
-      </c>
-      <c r="V32" t="s">
-        <v>63</v>
-      </c>
-      <c r="W32" s="2">
-        <v>44244</v>
-      </c>
-      <c r="X32" t="s">
-        <v>322</v>
+        <v>356</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
       </c>
       <c r="AL32" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AM32" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>44244</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>44244</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="BH32" t="s">
         <v>68</v>
@@ -10803,25 +10378,22 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>352167242513</v>
+        <v>352168617537</v>
       </c>
       <c r="B33" s="2">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="C33" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D33" s="2">
-        <v>38850</v>
+        <v>36270</v>
       </c>
       <c r="E33" s="2">
-        <v>44240</v>
+        <v>44248</v>
       </c>
       <c r="F33" t="s">
-        <v>359</v>
-      </c>
-      <c r="J33" s="2">
-        <v>44243</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s">
         <v>81</v>
@@ -10831,9 +10403,6 @@
       </c>
       <c r="AM33" t="s">
         <v>73</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>44243</v>
       </c>
       <c r="BH33" t="s">
         <v>68</v>
@@ -10844,52 +10413,52 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>352167253239</v>
+        <v>352167693579</v>
       </c>
       <c r="B34" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D34" s="2">
-        <v>34481</v>
+        <v>34898</v>
       </c>
       <c r="E34" s="2">
-        <v>44192</v>
+        <v>44239</v>
       </c>
       <c r="F34" t="s">
-        <v>364</v>
-      </c>
-      <c r="J34" s="2">
-        <v>44195</v>
-      </c>
-      <c r="K34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>44245</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>64</v>
       </c>
       <c r="AL34" t="s">
         <v>63</v>
       </c>
       <c r="AM34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AN34" s="2">
-        <v>44195</v>
+        <v>44245</v>
       </c>
       <c r="AO34" t="s">
         <v>64</v>
       </c>
       <c r="BD34" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="BE34" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="BF34" s="2">
-        <v>44259</v>
+        <v>44434</v>
       </c>
       <c r="BH34" t="s">
         <v>68</v>
@@ -10900,52 +10469,37 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>352167277294</v>
+        <v>352168961612</v>
       </c>
       <c r="B35" s="2">
         <v>44244</v>
       </c>
       <c r="C35" t="s">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="D35" s="2">
-        <v>23819</v>
+        <v>32406</v>
       </c>
       <c r="E35" s="2">
-        <v>44232</v>
+        <v>44244</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J35" s="2">
-        <v>44235</v>
-      </c>
-      <c r="K35" t="s">
-        <v>64</v>
+        <v>44248</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s">
         <v>73</v>
       </c>
       <c r="AN35" s="2">
-        <v>44235</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF35" s="2">
-        <v>44258</v>
+        <v>44248</v>
       </c>
       <c r="BH35" t="s">
         <v>68</v>
@@ -10956,37 +10510,31 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>352167285382</v>
+        <v>352167780854</v>
       </c>
       <c r="B36" s="2">
-        <v>44244</v>
+        <v>44247</v>
       </c>
       <c r="C36" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D36" s="2">
-        <v>16567</v>
+        <v>30314</v>
       </c>
       <c r="E36" s="2">
-        <v>44241</v>
+        <v>44245</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>44244</v>
+        <v>322</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
       </c>
       <c r="AL36" t="s">
         <v>81</v>
       </c>
       <c r="AM36" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>44244</v>
+        <v>73</v>
       </c>
       <c r="BH36" t="s">
         <v>68</v>
@@ -10997,37 +10545,22 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>352167322304</v>
+        <v>352167656548</v>
       </c>
       <c r="B37" s="2">
         <v>44244</v>
       </c>
       <c r="C37" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="D37" s="2">
-        <v>32193</v>
+        <v>24524</v>
       </c>
       <c r="E37" s="2">
-        <v>44241</v>
+        <v>44237</v>
       </c>
       <c r="F37" t="s">
-        <v>368</v>
-      </c>
-      <c r="J37" s="2">
-        <v>44244</v>
-      </c>
-      <c r="L37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>44244</v>
+        <v>340</v>
       </c>
       <c r="BH37" t="s">
         <v>68</v>
@@ -11038,52 +10571,37 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>352167333766</v>
+        <v>352167649055</v>
       </c>
       <c r="B38" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D38" s="2">
-        <v>30576</v>
+        <v>10139</v>
       </c>
       <c r="E38" s="2">
-        <v>44192</v>
+        <v>44240</v>
       </c>
       <c r="F38" t="s">
-        <v>370</v>
+        <v>101</v>
       </c>
       <c r="J38" s="2">
-        <v>44195</v>
-      </c>
-      <c r="K38" t="s">
-        <v>64</v>
+        <v>44246</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s">
         <v>73</v>
       </c>
       <c r="AN38" s="2">
-        <v>44195</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF38" s="2">
-        <v>44258</v>
+        <v>44246</v>
       </c>
       <c r="BH38" t="s">
         <v>68</v>
@@ -11094,52 +10612,37 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>352167344466</v>
+        <v>352168798567</v>
       </c>
       <c r="B39" s="2">
-        <v>44242</v>
+        <v>44254</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="D39" s="2">
-        <v>37567</v>
+        <v>28700</v>
       </c>
       <c r="E39" s="2">
-        <v>44242</v>
+        <v>44252</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
-      </c>
-      <c r="S39" t="s">
-        <v>81</v>
-      </c>
-      <c r="T39" s="2">
-        <v>44242</v>
-      </c>
-      <c r="V39" t="s">
-        <v>81</v>
-      </c>
-      <c r="W39" s="2">
-        <v>44242</v>
+        <v>420</v>
+      </c>
+      <c r="J39" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
       </c>
       <c r="AL39" t="s">
         <v>81</v>
       </c>
       <c r="AM39" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AN39" s="2">
-        <v>44242</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT39" s="2">
-        <v>44242</v>
+        <v>44254</v>
       </c>
       <c r="BH39" t="s">
         <v>68</v>
@@ -11150,25 +10653,25 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>352167357272</v>
+        <v>352168805280</v>
       </c>
       <c r="B40" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="C40" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="D40" s="2">
-        <v>18702</v>
+        <v>23671</v>
       </c>
       <c r="E40" s="2">
-        <v>44242</v>
+        <v>44252</v>
       </c>
       <c r="F40" t="s">
-        <v>373</v>
+        <v>211</v>
       </c>
       <c r="J40" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="L40" t="s">
         <v>81</v>
@@ -11180,7 +10683,7 @@
         <v>73</v>
       </c>
       <c r="AN40" s="2">
-        <v>44244</v>
+        <v>44254</v>
       </c>
       <c r="BH40" t="s">
         <v>68</v>
@@ -11191,25 +10694,25 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>352167363785</v>
+        <v>352168696819</v>
       </c>
       <c r="B41" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="C41" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D41" s="2">
-        <v>39056</v>
+        <v>28064</v>
       </c>
       <c r="E41" s="2">
-        <v>44241</v>
+        <v>44249</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="J41" s="2">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="L41" t="s">
         <v>81</v>
@@ -11221,7 +10724,7 @@
         <v>73</v>
       </c>
       <c r="AN41" s="2">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="BH41" t="s">
         <v>68</v>
@@ -11232,25 +10735,25 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>352167366726</v>
+        <v>352168714447</v>
       </c>
       <c r="B42" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D42" s="2">
-        <v>23431</v>
+        <v>25146</v>
       </c>
       <c r="E42" s="2">
-        <v>44242</v>
+        <v>44250</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="J42" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="L42" t="s">
         <v>81</v>
@@ -11262,7 +10765,7 @@
         <v>73</v>
       </c>
       <c r="AN42" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="BH42" t="s">
         <v>68</v>
@@ -11273,52 +10776,37 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>352167369700</v>
+        <v>352168782779</v>
       </c>
       <c r="B43" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="C43" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D43" s="2">
-        <v>34012</v>
+        <v>35618</v>
       </c>
       <c r="E43" s="2">
-        <v>44243</v>
+        <v>44249</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI43" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>64</v>
+        <v>404</v>
+      </c>
+      <c r="J43" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L43" t="s">
+        <v>81</v>
       </c>
       <c r="AL43" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AN43" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD43" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF43" s="2">
-        <v>44434</v>
+        <v>44253</v>
       </c>
       <c r="BH43" t="s">
         <v>68</v>
@@ -11329,19 +10817,19 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>352167372109</v>
+        <v>352167648035</v>
       </c>
       <c r="B44" s="2">
+        <v>44246</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="2">
+        <v>36458</v>
+      </c>
+      <c r="E44" s="2">
         <v>44244</v>
-      </c>
-      <c r="C44" t="s">
-        <v>378</v>
-      </c>
-      <c r="D44" s="2">
-        <v>29776</v>
-      </c>
-      <c r="E44" s="2">
-        <v>44242</v>
       </c>
       <c r="F44" t="s">
         <v>91</v>
@@ -11350,7 +10838,7 @@
         <v>63</v>
       </c>
       <c r="AI44" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="AJ44" t="s">
         <v>64</v>
@@ -11362,7 +10850,7 @@
         <v>65</v>
       </c>
       <c r="AN44" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="AO44" t="s">
         <v>64</v>
@@ -11374,7 +10862,7 @@
         <v>92</v>
       </c>
       <c r="BF44" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="BH44" t="s">
         <v>68</v>
@@ -11385,40 +10873,37 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>352167383204</v>
+        <v>352168328760</v>
       </c>
       <c r="B45" s="2">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="C45" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D45" s="2">
-        <v>14286</v>
+        <v>35341</v>
       </c>
       <c r="E45" s="2">
-        <v>44234</v>
+        <v>44246</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
-      </c>
-      <c r="S45" t="s">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="2">
+        <v>44251</v>
+      </c>
+      <c r="L45" t="s">
         <v>81</v>
       </c>
       <c r="AL45" t="s">
         <v>81</v>
       </c>
       <c r="AM45" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>110</v>
+        <v>73</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>44251</v>
       </c>
       <c r="BH45" t="s">
         <v>68</v>
@@ -11429,52 +10914,43 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>352167400938</v>
+        <v>4120066065048</v>
       </c>
       <c r="B46" s="2">
-        <v>44245</v>
+        <v>44238</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="D46" s="2">
-        <v>37375</v>
+        <v>25409</v>
       </c>
       <c r="E46" s="2">
-        <v>44231</v>
+        <v>44236</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
-      </c>
-      <c r="J46" s="2">
-        <v>44235</v>
-      </c>
-      <c r="K46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L46" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>44236</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>64</v>
       </c>
       <c r="AL46" t="s">
         <v>63</v>
       </c>
       <c r="AM46" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN46" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="AO46" t="s">
         <v>64</v>
-      </c>
-      <c r="BD46" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE46" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF46" s="2">
-        <v>44245</v>
       </c>
       <c r="BH46" t="s">
         <v>68</v>
@@ -11485,25 +10961,25 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>352167414795</v>
+        <v>352168725498</v>
       </c>
       <c r="B47" s="2">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="C47" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D47" s="2">
-        <v>44059</v>
+        <v>39699</v>
       </c>
       <c r="E47" s="2">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>150</v>
       </c>
       <c r="J47" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="L47" t="s">
         <v>81</v>
@@ -11515,7 +10991,7 @@
         <v>73</v>
       </c>
       <c r="AN47" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="BH47" t="s">
         <v>68</v>
@@ -11526,67 +11002,37 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>352167435672</v>
+        <v>352168783690</v>
       </c>
       <c r="B48" s="2">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="C48" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="D48" s="2">
-        <v>35599</v>
+        <v>25178</v>
       </c>
       <c r="E48" s="2">
-        <v>44238</v>
+        <v>44247</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
-      </c>
-      <c r="S48" t="s">
-        <v>63</v>
-      </c>
-      <c r="T48" s="2">
-        <v>44245</v>
-      </c>
-      <c r="U48" t="s">
-        <v>322</v>
-      </c>
-      <c r="V48" t="s">
-        <v>63</v>
-      </c>
-      <c r="W48" s="2">
-        <v>44245</v>
-      </c>
-      <c r="X48" t="s">
-        <v>322</v>
+        <v>407</v>
+      </c>
+      <c r="J48" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L48" t="s">
+        <v>81</v>
       </c>
       <c r="AL48" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AN48" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT48" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AU48" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE48" t="s">
-        <v>67</v>
+        <v>44253</v>
       </c>
       <c r="BH48" t="s">
         <v>68</v>
@@ -11597,52 +11043,52 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>352167454842</v>
+        <v>352167529347</v>
       </c>
       <c r="B49" s="2">
         <v>44245</v>
       </c>
       <c r="C49" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="D49" s="2">
-        <v>43954</v>
+        <v>21846</v>
       </c>
       <c r="E49" s="2">
-        <v>44236</v>
+        <v>44230</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
-      </c>
-      <c r="J49" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K49" t="s">
-        <v>64</v>
-      </c>
-      <c r="L49" t="s">
-        <v>63</v>
+        <v>326</v>
+      </c>
+      <c r="S49" t="s">
+        <v>81</v>
+      </c>
+      <c r="T49" s="2">
+        <v>44245</v>
+      </c>
+      <c r="V49" t="s">
+        <v>81</v>
+      </c>
+      <c r="W49" s="2">
+        <v>44245</v>
       </c>
       <c r="AL49" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AN49" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD49" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE49" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF49" s="2">
-        <v>44258</v>
+        <v>44245</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT49" s="2">
+        <v>44245</v>
       </c>
       <c r="BH49" t="s">
         <v>68</v>
@@ -11653,22 +11099,31 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>352167456107</v>
+        <v>352167718479</v>
       </c>
       <c r="B50" s="2">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="D50" s="2">
-        <v>44070</v>
+        <v>23439</v>
       </c>
       <c r="E50" s="2">
-        <v>44237</v>
+        <v>44243</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>321</v>
+      </c>
+      <c r="L50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>73</v>
       </c>
       <c r="BH50" t="s">
         <v>68</v>
@@ -11679,37 +11134,73 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>352167491074</v>
+        <v>352168628749</v>
       </c>
       <c r="B51" s="2">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="C51" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D51" s="2">
-        <v>35041</v>
+        <v>14575</v>
       </c>
       <c r="E51" s="2">
         <v>44241</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
-      </c>
-      <c r="J51" s="2">
-        <v>44245</v>
-      </c>
-      <c r="L51" t="s">
-        <v>81</v>
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>44251</v>
+      </c>
+      <c r="R51" t="s">
+        <v>317</v>
+      </c>
+      <c r="V51" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" s="2">
+        <v>44251</v>
+      </c>
+      <c r="X51" t="s">
+        <v>317</v>
       </c>
       <c r="AL51" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM51" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AN51" s="2">
-        <v>44245</v>
+        <v>44251</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT51" s="2">
+        <v>44251</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF51" s="2">
+        <v>44267</v>
       </c>
       <c r="BH51" t="s">
         <v>68</v>
@@ -11720,52 +11211,31 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>352167496730</v>
+        <v>352168372093</v>
       </c>
       <c r="B52" s="2">
+        <v>44251</v>
+      </c>
+      <c r="C52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="2">
+        <v>21039</v>
+      </c>
+      <c r="E52" s="2">
         <v>44245</v>
       </c>
-      <c r="C52" t="s">
-        <v>389</v>
-      </c>
-      <c r="D52" s="2">
-        <v>37621</v>
-      </c>
-      <c r="E52" s="2">
-        <v>44236</v>
-      </c>
       <c r="F52" t="s">
-        <v>390</v>
-      </c>
-      <c r="S52" t="s">
-        <v>81</v>
-      </c>
-      <c r="T52" s="2">
-        <v>44245</v>
-      </c>
-      <c r="V52" t="s">
-        <v>81</v>
-      </c>
-      <c r="W52" s="2">
-        <v>44245</v>
+        <v>280</v>
+      </c>
+      <c r="L52" t="s">
+        <v>72</v>
       </c>
       <c r="AL52" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AM52" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN52" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AR52" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT52" s="2">
-        <v>44245</v>
+        <v>73</v>
       </c>
       <c r="BH52" t="s">
         <v>68</v>
@@ -11776,25 +11246,25 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>352167505687</v>
+        <v>352168810974</v>
       </c>
       <c r="B53" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="D53" s="2">
-        <v>37466</v>
+        <v>35335</v>
       </c>
       <c r="E53" s="2">
-        <v>44241</v>
+        <v>44250</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>429</v>
       </c>
       <c r="J53" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="L53" t="s">
         <v>81</v>
@@ -11806,7 +11276,7 @@
         <v>73</v>
       </c>
       <c r="AN53" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="BH53" t="s">
         <v>68</v>
@@ -11817,67 +11287,37 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>352167512355</v>
+        <v>352168801547</v>
       </c>
       <c r="B54" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="D54" s="2">
-        <v>34543</v>
+        <v>18331</v>
       </c>
       <c r="E54" s="2">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="F54" t="s">
-        <v>393</v>
-      </c>
-      <c r="S54" t="s">
-        <v>81</v>
-      </c>
-      <c r="T54" s="2">
-        <v>44245</v>
-      </c>
-      <c r="V54" t="s">
-        <v>81</v>
-      </c>
-      <c r="W54" s="2">
-        <v>44245</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>44245</v>
+        <v>236</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L54" t="s">
+        <v>81</v>
       </c>
       <c r="AL54" t="s">
         <v>81</v>
       </c>
       <c r="AM54" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="AN54" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT54" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AX54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY54" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ54" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="BH54" t="s">
         <v>68</v>
@@ -11888,52 +11328,37 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>352167514319</v>
+        <v>352168607299</v>
       </c>
       <c r="B55" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D55" s="2">
-        <v>32186</v>
+        <v>33505</v>
       </c>
       <c r="E55" s="2">
-        <v>44199</v>
+        <v>44249</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="J55" s="2">
-        <v>44199</v>
-      </c>
-      <c r="K55" t="s">
-        <v>64</v>
+        <v>44252</v>
       </c>
       <c r="L55" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s">
         <v>73</v>
       </c>
       <c r="AN55" s="2">
-        <v>44199</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD55" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF55" s="2">
-        <v>44434</v>
+        <v>44252</v>
       </c>
       <c r="BH55" t="s">
         <v>68</v>
@@ -11944,31 +11369,37 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>352167522185</v>
+        <v>352168714629</v>
       </c>
       <c r="B56" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D56" s="2">
-        <v>43926</v>
+        <v>30233</v>
       </c>
       <c r="E56" s="2">
-        <v>44243</v>
+        <v>44249</v>
       </c>
       <c r="F56" t="s">
-        <v>396</v>
-      </c>
-      <c r="BD56" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE56" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF56" s="2">
-        <v>44245</v>
+        <v>77</v>
+      </c>
+      <c r="J56" s="2">
+        <v>44252</v>
+      </c>
+      <c r="L56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>44252</v>
       </c>
       <c r="BH56" t="s">
         <v>68</v>
@@ -11979,52 +11410,43 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>352167529347</v>
+        <v>352168308577</v>
       </c>
       <c r="B57" s="2">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="D57" s="2">
-        <v>21846</v>
+        <v>25709</v>
       </c>
       <c r="E57" s="2">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
-      </c>
-      <c r="S57" t="s">
-        <v>81</v>
-      </c>
-      <c r="T57" s="2">
-        <v>44245</v>
-      </c>
-      <c r="V57" t="s">
-        <v>81</v>
-      </c>
-      <c r="W57" s="2">
-        <v>44245</v>
+        <v>62</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>44251</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>64</v>
       </c>
       <c r="AL57" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM57" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN57" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS57" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT57" s="2">
-        <v>44245</v>
+        <v>44251</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>64</v>
       </c>
       <c r="BH57" t="s">
         <v>68</v>
@@ -12035,37 +11457,37 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>352167544321</v>
+        <v>352168856710</v>
       </c>
       <c r="B58" s="2">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="D58" s="2">
-        <v>28246</v>
+        <v>30153</v>
       </c>
       <c r="E58" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="F58" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI58" s="2">
-        <v>44245</v>
+        <v>84</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L58" t="s">
+        <v>81</v>
       </c>
       <c r="AL58" t="s">
         <v>81</v>
       </c>
       <c r="AM58" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AN58" s="2">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="BH58" t="s">
         <v>68</v>
@@ -12076,22 +11498,43 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>352167579015</v>
+        <v>4120068692674</v>
       </c>
       <c r="B59" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="C59" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="D59" s="2">
-        <v>27509</v>
+        <v>24896</v>
       </c>
       <c r="E59" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>62</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>44252</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>44252</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>64</v>
       </c>
       <c r="BH59" t="s">
         <v>68</v>
@@ -12102,22 +11545,37 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>352167580487</v>
+        <v>352168827674</v>
       </c>
       <c r="B60" s="2">
-        <v>44246</v>
+        <v>44254</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="D60" s="2">
-        <v>26417</v>
+        <v>42046</v>
       </c>
       <c r="E60" s="2">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>437</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L60" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>44254</v>
       </c>
       <c r="BH60" t="s">
         <v>68</v>
@@ -12128,37 +11586,40 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>352167583735</v>
+        <v>352168149254</v>
       </c>
       <c r="B61" s="2">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c r="C61" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="D61" s="2">
-        <v>33117</v>
+        <v>43866</v>
       </c>
       <c r="E61" s="2">
-        <v>44243</v>
+        <v>44249</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
-      </c>
-      <c r="J61" s="2">
-        <v>44245</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AL61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AM61" t="s">
         <v>73</v>
       </c>
-      <c r="AN61" s="2">
-        <v>44245</v>
+      <c r="BD61" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF61" s="2">
+        <v>44284</v>
       </c>
       <c r="BH61" t="s">
         <v>68</v>
@@ -12169,25 +11630,25 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>352167593468</v>
+        <v>352168796154</v>
       </c>
       <c r="B62" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="C62" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D62" s="2">
-        <v>38232</v>
+        <v>31004</v>
       </c>
       <c r="E62" s="2">
-        <v>44233</v>
+        <v>44251</v>
       </c>
       <c r="F62" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="J62" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="L62" t="s">
         <v>81</v>
@@ -12199,7 +11660,7 @@
         <v>73</v>
       </c>
       <c r="AN62" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="BH62" t="s">
         <v>68</v>
@@ -12210,37 +11671,43 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>352167610697</v>
+        <v>4120066064239</v>
       </c>
       <c r="B63" s="2">
-        <v>44245</v>
+        <v>44238</v>
       </c>
       <c r="C63" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="D63" s="2">
-        <v>28581</v>
+        <v>23378</v>
       </c>
       <c r="E63" s="2">
-        <v>44242</v>
+        <v>44236</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="2">
-        <v>44245</v>
-      </c>
-      <c r="L63" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>44236</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>64</v>
       </c>
       <c r="AL63" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM63" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN63" s="2">
-        <v>44245</v>
+        <v>44236</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>64</v>
       </c>
       <c r="BH63" t="s">
         <v>68</v>
@@ -12251,22 +11718,25 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>352167612706</v>
+        <v>352168746066</v>
       </c>
       <c r="B64" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="C64" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D64" s="2">
-        <v>39288</v>
+        <v>36833</v>
       </c>
       <c r="E64" s="2">
-        <v>44241</v>
+        <v>44250</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>84</v>
+      </c>
+      <c r="J64" s="2">
+        <v>44253</v>
       </c>
       <c r="L64" t="s">
         <v>81</v>
@@ -12276,6 +11746,9 @@
       </c>
       <c r="AM64" t="s">
         <v>73</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>44253</v>
       </c>
       <c r="BH64" t="s">
         <v>68</v>
@@ -12286,22 +11759,25 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>352167627891</v>
+        <v>352168782864</v>
       </c>
       <c r="B65" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="C65" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D65" s="2">
-        <v>38601</v>
+        <v>18925</v>
       </c>
       <c r="E65" s="2">
-        <v>44242</v>
+        <v>44247</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>84</v>
+      </c>
+      <c r="J65" s="2">
+        <v>44253</v>
       </c>
       <c r="L65" t="s">
         <v>81</v>
@@ -12311,6 +11787,9 @@
       </c>
       <c r="AM65" t="s">
         <v>73</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>44253</v>
       </c>
       <c r="BH65" t="s">
         <v>68</v>
@@ -12321,31 +11800,40 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>352167630960</v>
+        <v>352167734708</v>
       </c>
       <c r="B66" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="D66" s="2">
-        <v>43563</v>
+        <v>30664</v>
       </c>
       <c r="E66" s="2">
-        <v>44240</v>
+        <v>44242</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>350</v>
+      </c>
+      <c r="L66" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>73</v>
       </c>
       <c r="BD66" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="BE66" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="BF66" s="2">
-        <v>44246</v>
+        <v>44263</v>
       </c>
       <c r="BH66" t="s">
         <v>68</v>
@@ -12356,25 +11844,25 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>352167633049</v>
+        <v>352171548033</v>
       </c>
       <c r="B67" s="2">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="C67" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="D67" s="2">
-        <v>31508</v>
+        <v>35557</v>
       </c>
       <c r="E67" s="2">
-        <v>44243</v>
+        <v>44233</v>
       </c>
       <c r="F67" t="s">
-        <v>412</v>
+        <v>211</v>
       </c>
       <c r="J67" s="2">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="L67" t="s">
         <v>81</v>
@@ -12386,7 +11874,7 @@
         <v>73</v>
       </c>
       <c r="AN67" s="2">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="BH67" t="s">
         <v>68</v>
@@ -12397,37 +11885,43 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>352167646124</v>
+        <v>4120066064617</v>
       </c>
       <c r="B68" s="2">
-        <v>44245</v>
+        <v>44238</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="D68" s="2">
-        <v>35893</v>
+        <v>25645</v>
       </c>
       <c r="E68" s="2">
-        <v>44242</v>
+        <v>44236</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
-      </c>
-      <c r="J68" s="2">
-        <v>44245</v>
-      </c>
-      <c r="L68" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>44236</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>64</v>
       </c>
       <c r="AL68" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM68" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN68" s="2">
-        <v>44245</v>
+        <v>44236</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>64</v>
       </c>
       <c r="BH68" t="s">
         <v>68</v>
@@ -12438,52 +11932,31 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>352167648035</v>
+        <v>352167630960</v>
       </c>
       <c r="B69" s="2">
         <v>44246</v>
       </c>
       <c r="C69" t="s">
-        <v>414</v>
+        <v>334</v>
       </c>
       <c r="D69" s="2">
-        <v>36458</v>
+        <v>43563</v>
       </c>
       <c r="E69" s="2">
-        <v>44244</v>
+        <v>44240</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI69" s="2">
-        <v>44246</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN69" s="2">
-        <v>44246</v>
-      </c>
-      <c r="AO69" t="s">
-        <v>64</v>
+        <v>335</v>
       </c>
       <c r="BD69" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="BE69" t="s">
         <v>92</v>
       </c>
       <c r="BF69" s="2">
-        <v>44258</v>
+        <v>44246</v>
       </c>
       <c r="BH69" t="s">
         <v>68</v>
@@ -12494,25 +11967,25 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>352167649055</v>
+        <v>352168828572</v>
       </c>
       <c r="B70" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="C70" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D70" s="2">
-        <v>10139</v>
+        <v>41262</v>
       </c>
       <c r="E70" s="2">
-        <v>44240</v>
+        <v>44251</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="J70" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="L70" t="s">
         <v>81</v>
@@ -12524,7 +11997,7 @@
         <v>73</v>
       </c>
       <c r="AN70" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="BH70" t="s">
         <v>68</v>
@@ -12535,52 +12008,22 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>352167649266</v>
+        <v>352167996822</v>
       </c>
       <c r="B71" s="2">
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="D71" s="2">
-        <v>19232</v>
+        <v>33250</v>
       </c>
       <c r="E71" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="F71" t="s">
-        <v>282</v>
-      </c>
-      <c r="J71" s="2">
-        <v>44246</v>
-      </c>
-      <c r="K71" t="s">
-        <v>64</v>
-      </c>
-      <c r="L71" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN71" s="2">
-        <v>44246</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD71" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF71" s="2">
-        <v>44252</v>
+        <v>109</v>
       </c>
       <c r="BH71" t="s">
         <v>68</v>
@@ -12591,25 +12034,25 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>352167650701</v>
+        <v>352168830133</v>
       </c>
       <c r="B72" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="C72" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="D72" s="2">
-        <v>32576</v>
+        <v>35580</v>
       </c>
       <c r="E72" s="2">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="F72" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="J72" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="L72" t="s">
         <v>81</v>
@@ -12621,7 +12064,7 @@
         <v>73</v>
       </c>
       <c r="AN72" s="2">
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="BH72" t="s">
         <v>68</v>
@@ -12632,22 +12075,37 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>352167656548</v>
+        <v>352168795910</v>
       </c>
       <c r="B73" s="2">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="C73" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D73" s="2">
-        <v>24524</v>
+        <v>32678</v>
       </c>
       <c r="E73" s="2">
-        <v>44237</v>
+        <v>44248</v>
       </c>
       <c r="F73" t="s">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c r="J73" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>44253</v>
       </c>
       <c r="BH73" t="s">
         <v>68</v>
@@ -12658,37 +12116,22 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>352167682805</v>
+        <v>352167579015</v>
       </c>
       <c r="B74" s="2">
         <v>44246</v>
       </c>
       <c r="C74" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="D74" s="2">
-        <v>35599</v>
+        <v>27509</v>
       </c>
       <c r="E74" s="2">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
-      </c>
-      <c r="J74" s="2">
-        <v>44246</v>
-      </c>
-      <c r="L74" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>44246</v>
+        <v>329</v>
       </c>
       <c r="BH74" t="s">
         <v>68</v>
@@ -12699,37 +12142,19 @@
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>352167688519</v>
+        <v>352168373188</v>
       </c>
       <c r="B75" s="2">
-        <v>44246</v>
+        <v>44251</v>
       </c>
       <c r="C75" t="s">
-        <v>421</v>
-      </c>
-      <c r="D75" s="2">
-        <v>39526</v>
-      </c>
-      <c r="E75" s="2">
-        <v>44243</v>
+        <v>360</v>
+      </c>
+      <c r="D75" t="s">
+        <v>361</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
-      </c>
-      <c r="J75" s="2">
-        <v>44246</v>
-      </c>
-      <c r="L75" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN75" s="2">
-        <v>44246</v>
+        <v>362</v>
       </c>
       <c r="BH75" t="s">
         <v>68</v>
@@ -12740,37 +12165,43 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>352167688741</v>
+        <v>4120066059291</v>
       </c>
       <c r="B76" s="2">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="C76" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D76" s="2">
-        <v>41724</v>
+        <v>30730</v>
       </c>
       <c r="E76" s="2">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c r="F76" t="s">
-        <v>423</v>
-      </c>
-      <c r="J76" s="2">
-        <v>44246</v>
-      </c>
-      <c r="L76" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>44237</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>64</v>
       </c>
       <c r="AL76" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM76" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN76" s="2">
-        <v>44246</v>
+        <v>44237</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>64</v>
       </c>
       <c r="BH76" t="s">
         <v>68</v>
@@ -12781,52 +12212,37 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>352167693579</v>
+        <v>352168773885</v>
       </c>
       <c r="B77" s="2">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="C77" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D77" s="2">
-        <v>34898</v>
+        <v>32177</v>
       </c>
       <c r="E77" s="2">
-        <v>44239</v>
+        <v>44248</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI77" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>64</v>
+        <v>400</v>
+      </c>
+      <c r="J77" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L77" t="s">
+        <v>81</v>
       </c>
       <c r="AL77" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AN77" s="2">
-        <v>44245</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD77" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF77" s="2">
-        <v>44434</v>
+        <v>44253</v>
       </c>
       <c r="BH77" t="s">
         <v>68</v>
@@ -12837,22 +12253,25 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>352167718479</v>
+        <v>352168798361</v>
       </c>
       <c r="B78" s="2">
-        <v>44247</v>
+        <v>44254</v>
       </c>
       <c r="C78" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D78" s="2">
-        <v>23439</v>
+        <v>29700</v>
       </c>
       <c r="E78" s="2">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="F78" t="s">
-        <v>337</v>
+        <v>208</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44253</v>
       </c>
       <c r="L78" t="s">
         <v>81</v>
@@ -12862,6 +12281,9 @@
       </c>
       <c r="AM78" t="s">
         <v>73</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>44253</v>
       </c>
       <c r="BH78" t="s">
         <v>68</v>
@@ -12872,31 +12294,22 @@
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>352167733143</v>
+        <v>352167580487</v>
       </c>
       <c r="B79" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="D79" s="2">
-        <v>41551</v>
+        <v>26417</v>
       </c>
       <c r="E79" s="2">
         <v>44243</v>
       </c>
       <c r="F79" t="s">
-        <v>427</v>
-      </c>
-      <c r="L79" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL79" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM79" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="BH79" t="s">
         <v>68</v>
@@ -12907,40 +12320,52 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>352167734708</v>
+        <v>352168780393</v>
       </c>
       <c r="B80" s="2">
-        <v>44247</v>
+        <v>44253</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="D80" s="2">
-        <v>30664</v>
+        <v>42512</v>
       </c>
       <c r="E80" s="2">
-        <v>44242</v>
+        <v>44250</v>
       </c>
       <c r="F80" t="s">
-        <v>429</v>
+        <v>84</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44253</v>
+      </c>
+      <c r="K80" t="s">
+        <v>64</v>
       </c>
       <c r="L80" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AL80" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM80" t="s">
         <v>73</v>
       </c>
+      <c r="AN80" s="2">
+        <v>44253</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>64</v>
+      </c>
       <c r="BD80" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="BE80" t="s">
         <v>67</v>
       </c>
       <c r="BF80" s="2">
-        <v>44263</v>
+        <v>44273</v>
       </c>
       <c r="BH80" t="s">
         <v>68</v>
@@ -12951,31 +12376,22 @@
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>352167780854</v>
+        <v>352168799922</v>
       </c>
       <c r="B81" s="2">
-        <v>44247</v>
+        <v>44254</v>
       </c>
       <c r="C81" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D81" s="2">
-        <v>30314</v>
+        <v>36267</v>
       </c>
       <c r="E81" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="F81" t="s">
-        <v>340</v>
-      </c>
-      <c r="L81" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL81" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM81" t="s">
-        <v>73</v>
+        <v>422</v>
       </c>
       <c r="BH81" t="s">
         <v>68</v>
@@ -12986,22 +12402,37 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>352167996822</v>
+        <v>352168715619</v>
       </c>
       <c r="B82" s="2">
-        <v>44249</v>
+        <v>44253</v>
       </c>
       <c r="C82" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="D82" s="2">
-        <v>33250</v>
+        <v>32335</v>
       </c>
       <c r="E82" s="2">
-        <v>44243</v>
+        <v>44247</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>389</v>
+      </c>
+      <c r="J82" s="2">
+        <v>44251</v>
+      </c>
+      <c r="L82" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>44251</v>
       </c>
       <c r="BH82" t="s">
         <v>68</v>
@@ -13012,31 +12443,73 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>352168022506</v>
+        <v>352168648931</v>
       </c>
       <c r="B83" s="2">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="D83" s="2">
-        <v>36794</v>
+        <v>19118</v>
       </c>
       <c r="E83" s="2">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="F83" t="s">
-        <v>433</v>
-      </c>
-      <c r="L83" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="S83" t="s">
+        <v>63</v>
+      </c>
+      <c r="T83" s="2">
+        <v>44279</v>
+      </c>
+      <c r="U83" t="s">
+        <v>317</v>
+      </c>
+      <c r="V83" t="s">
+        <v>63</v>
+      </c>
+      <c r="W83" s="2">
+        <v>44279</v>
+      </c>
+      <c r="X83" t="s">
+        <v>317</v>
       </c>
       <c r="AL83" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM83" t="s">
-        <v>73</v>
+        <v>110</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>44279</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT83" s="2">
+        <v>44279</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE83" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF83" s="2">
+        <v>44291</v>
       </c>
       <c r="BH83" t="s">
         <v>68</v>
@@ -13047,22 +12520,25 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>352168058867</v>
+        <v>352168810745</v>
       </c>
       <c r="B84" s="2">
-        <v>44249</v>
+        <v>44253</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D84" s="2">
-        <v>36873</v>
+        <v>29477</v>
       </c>
       <c r="E84" s="2">
-        <v>44247</v>
+        <v>44250</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>156</v>
+      </c>
+      <c r="J84" s="2">
+        <v>44253</v>
       </c>
       <c r="L84" t="s">
         <v>81</v>
@@ -13072,6 +12548,9 @@
       </c>
       <c r="AM84" t="s">
         <v>73</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>44253</v>
       </c>
       <c r="BH84" t="s">
         <v>68</v>
@@ -13082,31 +12561,37 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>352168110203</v>
+        <v>352167688519</v>
       </c>
       <c r="B85" s="2">
-        <v>44250</v>
+        <v>44246</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>342</v>
       </c>
       <c r="D85" s="2">
-        <v>36222</v>
+        <v>39526</v>
       </c>
       <c r="E85" s="2">
-        <v>44249</v>
+        <v>44243</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>318</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44246</v>
       </c>
       <c r="L85" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AL85" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AM85" t="s">
         <v>73</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>44246</v>
       </c>
       <c r="BH85" t="s">
         <v>68</v>
@@ -13117,40 +12602,43 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>352168149254</v>
+        <v>4120068563945</v>
       </c>
       <c r="B86" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C86" t="s">
+        <v>459</v>
+      </c>
+      <c r="D86" s="2">
+        <v>24445</v>
+      </c>
+      <c r="E86" s="2">
         <v>44250</v>
       </c>
-      <c r="C86" t="s">
-        <v>436</v>
-      </c>
-      <c r="D86" s="2">
-        <v>43866</v>
-      </c>
-      <c r="E86" s="2">
-        <v>44249</v>
-      </c>
       <c r="F86" t="s">
-        <v>107</v>
-      </c>
-      <c r="L86" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>44250</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>64</v>
       </c>
       <c r="AL86" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AM86" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD86" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE86" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF86" s="2">
-        <v>44284</v>
+        <v>95</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>44250</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>64</v>
       </c>
       <c r="BH86" t="s">
         <v>68</v>
@@ -13161,31 +12649,22 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>352168201954</v>
+        <v>352168792706</v>
       </c>
       <c r="B87" s="2">
-        <v>44250</v>
+        <v>44253</v>
       </c>
       <c r="C87" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="D87" s="2">
-        <v>35092</v>
+        <v>34970</v>
       </c>
       <c r="E87" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="F87" t="s">
-        <v>438</v>
-      </c>
-      <c r="L87" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL87" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM87" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="BH87" t="s">
         <v>68</v>
@@ -13196,28 +12675,28 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>352168308577</v>
+        <v>4120066086994</v>
       </c>
       <c r="B88" s="2">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D88" s="2">
-        <v>25709</v>
+        <v>36936</v>
       </c>
       <c r="E88" s="2">
-        <v>44251</v>
+        <v>44136</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="AE88" t="s">
         <v>63</v>
       </c>
       <c r="AF88" s="2">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="AG88" t="s">
         <v>64</v>
@@ -13229,7 +12708,7 @@
         <v>95</v>
       </c>
       <c r="AN88" s="2">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="AO88" t="s">
         <v>64</v>
@@ -13243,37 +12722,43 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>352168328760</v>
+        <v>4120066996570</v>
       </c>
       <c r="B89" s="2">
-        <v>44251</v>
+        <v>44243</v>
       </c>
       <c r="C89" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D89" s="2">
-        <v>35341</v>
+        <v>32402</v>
       </c>
       <c r="E89" s="2">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J89" s="2">
-        <v>44251</v>
-      </c>
-      <c r="L89" t="s">
-        <v>81</v>
+        <v>123</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>44238</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>64</v>
       </c>
       <c r="AL89" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AM89" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AN89" s="2">
-        <v>44251</v>
+        <v>44238</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>64</v>
       </c>
       <c r="BH89" t="s">
         <v>68</v>
@@ -13284,26 +12769,26 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>352168336260</v>
+        <v>352170860641</v>
       </c>
       <c r="B90" s="2">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="C90" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D90" s="2">
-        <v>34394</v>
+        <v>30867</v>
       </c>
       <c r="E90" s="2">
+        <v>44237</v>
+      </c>
+      <c r="F90" t="s">
+        <v>183</v>
+      </c>
+      <c r="J90" s="2">
         <v>44244</v>
       </c>
-      <c r="F90" t="s">
-        <v>71</v>
-      </c>
-      <c r="J90" s="2">
-        <v>44251</v>
-      </c>
       <c r="L90" t="s">
         <v>81</v>
       </c>
@@ -13314,7 +12799,7 @@
         <v>73</v>
       </c>
       <c r="AN90" s="2">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="BH90" t="s">
         <v>68</v>
@@ -13325,31 +12810,52 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>352168372093</v>
+        <v>352168611937</v>
       </c>
       <c r="B91" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" s="2">
+        <v>24028</v>
+      </c>
+      <c r="E91" s="2">
         <v>44251</v>
       </c>
-      <c r="C91" t="s">
-        <v>442</v>
-      </c>
-      <c r="D91" s="2">
-        <v>21039</v>
-      </c>
-      <c r="E91" s="2">
-        <v>44245</v>
-      </c>
       <c r="F91" t="s">
-        <v>280</v>
+        <v>173</v>
+      </c>
+      <c r="J91" s="2">
+        <v>44252</v>
+      </c>
+      <c r="K91" t="s">
+        <v>64</v>
       </c>
       <c r="L91" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL91" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AM91" t="s">
         <v>73</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>44252</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF91" s="2">
+        <v>44273</v>
       </c>
       <c r="BH91" t="s">
         <v>68</v>
@@ -13360,19 +12866,37 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>352168373188</v>
+        <v>352168814764</v>
       </c>
       <c r="B92" s="2">
+        <v>44254</v>
+      </c>
+      <c r="C92" t="s">
+        <v>433</v>
+      </c>
+      <c r="D92" s="2">
+        <v>19627</v>
+      </c>
+      <c r="E92" s="2">
         <v>44251</v>
       </c>
-      <c r="C92" t="s">
-        <v>443</v>
-      </c>
-      <c r="D92" t="s">
-        <v>444</v>
-      </c>
       <c r="F92" t="s">
-        <v>445</v>
+        <v>434</v>
+      </c>
+      <c r="J92" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>44254</v>
       </c>
       <c r="BH92" t="s">
         <v>68</v>
@@ -13383,22 +12907,37 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>352168395298</v>
+        <v>352168813324</v>
       </c>
       <c r="B93" s="2">
-        <v>44251</v>
+        <v>44254</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D93" s="2">
-        <v>26697</v>
+        <v>33732</v>
       </c>
       <c r="E93" s="2">
-        <v>44249</v>
+        <v>44252</v>
       </c>
       <c r="F93" t="s">
-        <v>241</v>
+        <v>323</v>
+      </c>
+      <c r="J93" s="2">
+        <v>44254</v>
+      </c>
+      <c r="L93" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>44254</v>
       </c>
       <c r="BH93" t="s">
         <v>68</v>
@@ -13409,22 +12948,37 @@
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>352168396702</v>
+        <v>352168671006</v>
       </c>
       <c r="B94" s="2">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="C94" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="D94" s="2">
-        <v>43587</v>
+        <v>35080</v>
       </c>
       <c r="E94" s="2">
         <v>44248</v>
       </c>
       <c r="F94" t="s">
-        <v>381</v>
+        <v>364</v>
+      </c>
+      <c r="J94" s="2">
+        <v>44250</v>
+      </c>
+      <c r="L94" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>44250</v>
       </c>
       <c r="BH94" t="s">
         <v>68</v>
@@ -13435,49 +12989,37 @@
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>352168397883</v>
+        <v>352167688741</v>
       </c>
       <c r="B95" s="2">
-        <v>44251</v>
+        <v>44246</v>
       </c>
       <c r="C95" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="D95" s="2">
-        <v>20759</v>
+        <v>41724</v>
       </c>
       <c r="E95" s="2">
-        <v>44248</v>
+        <v>44242</v>
       </c>
       <c r="F95" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="J95" s="2">
-        <v>44251</v>
-      </c>
-      <c r="K95" t="s">
-        <v>64</v>
+        <v>44246</v>
       </c>
       <c r="L95" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL95" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM95" t="s">
         <v>73</v>
       </c>
       <c r="AN95" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AO95" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD95" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF95" s="2">
-        <v>44302</v>
+        <v>44246</v>
       </c>
       <c r="BH95" t="s">
         <v>68</v>
@@ -13488,22 +13030,37 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>352168404809</v>
+        <v>352168829702</v>
       </c>
       <c r="B96" s="2">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="C96" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D96" s="2">
-        <v>27485</v>
+        <v>37308</v>
       </c>
       <c r="E96" s="2">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="F96" t="s">
-        <v>451</v>
+        <v>123</v>
+      </c>
+      <c r="J96" s="2">
+        <v>44253</v>
+      </c>
+      <c r="L96" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>44253</v>
       </c>
       <c r="BH96" t="s">
         <v>68</v>
@@ -13514,46 +13071,37 @@
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>352168515055</v>
+        <v>352168822422</v>
       </c>
       <c r="B97" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="C97" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D97" s="2">
-        <v>23448</v>
+        <v>29113</v>
       </c>
       <c r="E97" s="2">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c r="F97" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="J97" s="2">
-        <v>44252</v>
-      </c>
-      <c r="K97" t="s">
-        <v>64</v>
+        <v>44254</v>
       </c>
       <c r="L97" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AL97" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AM97" t="s">
         <v>73</v>
       </c>
       <c r="AN97" s="2">
-        <v>44252</v>
-      </c>
-      <c r="AO97" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE97" t="s">
-        <v>67</v>
+        <v>44254</v>
       </c>
       <c r="BH97" t="s">
         <v>68</v>
@@ -13564,52 +13112,43 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>352168517435</v>
+        <v>4120068523839</v>
       </c>
       <c r="B98" s="2">
         <v>44252</v>
       </c>
       <c r="C98" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D98" s="2">
-        <v>25815</v>
+        <v>33667</v>
       </c>
       <c r="E98" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="F98" t="s">
-        <v>223</v>
-      </c>
-      <c r="J98" s="2">
-        <v>44252</v>
-      </c>
-      <c r="K98" t="s">
-        <v>64</v>
-      </c>
-      <c r="L98" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI98" s="2">
+        <v>44251</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>64</v>
       </c>
       <c r="AL98" t="s">
         <v>63</v>
       </c>
       <c r="AM98" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AN98" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="AO98" t="s">
         <v>64</v>
-      </c>
-      <c r="BD98" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE98" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF98" s="2">
-        <v>44263</v>
       </c>
       <c r="BH98" t="s">
         <v>68</v>
@@ -13620,25 +13159,25 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>352168523015</v>
+        <v>352168756372</v>
       </c>
       <c r="B99" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C99" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="D99" s="2">
-        <v>24050</v>
+        <v>36665</v>
       </c>
       <c r="E99" s="2">
-        <v>44243</v>
+        <v>44248</v>
       </c>
       <c r="F99" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="J99" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="L99" t="s">
         <v>81</v>
@@ -13650,7 +13189,7 @@
         <v>73</v>
       </c>
       <c r="AN99" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="BH99" t="s">
         <v>68</v>
@@ -13661,22 +13200,25 @@
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>352168553049</v>
+        <v>352168796026</v>
       </c>
       <c r="B100" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="D100" s="2">
-        <v>24548</v>
+        <v>38446</v>
       </c>
       <c r="E100" s="2">
-        <v>44248</v>
+        <v>44250</v>
       </c>
       <c r="F100" t="s">
-        <v>457</v>
+        <v>415</v>
+      </c>
+      <c r="J100" s="2">
+        <v>44253</v>
       </c>
       <c r="L100" t="s">
         <v>81</v>
@@ -13686,6 +13228,9 @@
       </c>
       <c r="AM100" t="s">
         <v>73</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>44253</v>
       </c>
       <c r="BH100" t="s">
         <v>68</v>
@@ -13696,25 +13241,25 @@
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>352168586265</v>
+        <v>352167593468</v>
       </c>
       <c r="B101" s="2">
-        <v>44252</v>
+        <v>44246</v>
       </c>
       <c r="C101" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="D101" s="2">
-        <v>32862</v>
+        <v>38232</v>
       </c>
       <c r="E101" s="2">
-        <v>44249</v>
+        <v>44233</v>
       </c>
       <c r="F101" t="s">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="J101" s="2">
-        <v>44252</v>
+        <v>44246</v>
       </c>
       <c r="L101" t="s">
         <v>81</v>
@@ -13726,16 +13271,7 @@
         <v>73</v>
       </c>
       <c r="AN101" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BD101" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE101" t="s">
-        <v>460</v>
-      </c>
-      <c r="BF101" s="2">
-        <v>44566</v>
+        <v>44246</v>
       </c>
       <c r="BH101" t="s">
         <v>68</v>
@@ -13744,3699 +13280,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>352168607299</v>
-      </c>
-      <c r="B102" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C102" t="s">
-        <v>461</v>
-      </c>
-      <c r="D102" s="2">
-        <v>33505</v>
-      </c>
-      <c r="E102" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F102" t="s">
-        <v>462</v>
-      </c>
-      <c r="J102" s="2">
-        <v>44252</v>
-      </c>
-      <c r="L102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM102" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN102" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BH102" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>352168611937</v>
-      </c>
-      <c r="B103" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C103" t="s">
-        <v>463</v>
-      </c>
-      <c r="D103" s="2">
-        <v>24028</v>
-      </c>
-      <c r="E103" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J103" s="2">
-        <v>44252</v>
-      </c>
-      <c r="K103" t="s">
-        <v>64</v>
-      </c>
-      <c r="L103" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL103" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM103" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN103" s="2">
-        <v>44252</v>
-      </c>
-      <c r="AO103" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD103" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE103" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF103" s="2">
-        <v>44273</v>
-      </c>
-      <c r="BH103" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>352168617537</v>
-      </c>
-      <c r="B104" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C104" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2">
-        <v>36270</v>
-      </c>
-      <c r="E104" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F104" t="s">
-        <v>123</v>
-      </c>
-      <c r="L104" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL104" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM104" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH104" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI104" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>352168626349</v>
-      </c>
-      <c r="B105" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C105" t="s">
-        <v>465</v>
-      </c>
-      <c r="D105" s="2">
-        <v>31482</v>
-      </c>
-      <c r="E105" s="2">
-        <v>44243</v>
-      </c>
-      <c r="F105" t="s">
-        <v>223</v>
-      </c>
-      <c r="S105" t="s">
-        <v>63</v>
-      </c>
-      <c r="T105" s="2">
-        <v>44257</v>
-      </c>
-      <c r="U105" t="s">
-        <v>322</v>
-      </c>
-      <c r="V105" t="s">
-        <v>63</v>
-      </c>
-      <c r="W105" s="2">
-        <v>44257</v>
-      </c>
-      <c r="X105" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL105" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM105" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN105" s="2">
-        <v>44257</v>
-      </c>
-      <c r="AO105" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR105" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS105" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT105" s="2">
-        <v>44257</v>
-      </c>
-      <c r="AU105" t="s">
-        <v>322</v>
-      </c>
-      <c r="BD105" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE105" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF105" s="2">
-        <v>44267</v>
-      </c>
-      <c r="BH105" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI105" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>352168628749</v>
-      </c>
-      <c r="B106" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C106" t="s">
-        <v>466</v>
-      </c>
-      <c r="D106" s="2">
-        <v>14575</v>
-      </c>
-      <c r="E106" s="2">
-        <v>44241</v>
-      </c>
-      <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="P106" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q106" s="2">
-        <v>44251</v>
-      </c>
-      <c r="R106" t="s">
-        <v>322</v>
-      </c>
-      <c r="V106" t="s">
-        <v>63</v>
-      </c>
-      <c r="W106" s="2">
-        <v>44251</v>
-      </c>
-      <c r="X106" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL106" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM106" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN106" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AO106" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR106" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS106" t="s">
-        <v>467</v>
-      </c>
-      <c r="AT106" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AU106" t="s">
-        <v>322</v>
-      </c>
-      <c r="BD106" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE106" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF106" s="2">
-        <v>44267</v>
-      </c>
-      <c r="BH106" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI106" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>352168648931</v>
-      </c>
-      <c r="B107" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C107" t="s">
-        <v>468</v>
-      </c>
-      <c r="D107" s="2">
-        <v>19118</v>
-      </c>
-      <c r="E107" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F107" t="s">
-        <v>62</v>
-      </c>
-      <c r="S107" t="s">
-        <v>63</v>
-      </c>
-      <c r="T107" s="2">
-        <v>44279</v>
-      </c>
-      <c r="U107" t="s">
-        <v>322</v>
-      </c>
-      <c r="V107" t="s">
-        <v>63</v>
-      </c>
-      <c r="W107" s="2">
-        <v>44279</v>
-      </c>
-      <c r="X107" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL107" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM107" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN107" s="2">
-        <v>44279</v>
-      </c>
-      <c r="AO107" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR107" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS107" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT107" s="2">
-        <v>44279</v>
-      </c>
-      <c r="AU107" t="s">
-        <v>322</v>
-      </c>
-      <c r="BD107" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE107" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF107" s="2">
-        <v>44291</v>
-      </c>
-      <c r="BH107" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI107" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>352168664956</v>
-      </c>
-      <c r="B108" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C108" t="s">
-        <v>469</v>
-      </c>
-      <c r="D108" s="2">
-        <v>32960</v>
-      </c>
-      <c r="E108" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F108" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH108" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI108" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>352168671006</v>
-      </c>
-      <c r="B109" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C109" t="s">
-        <v>470</v>
-      </c>
-      <c r="D109" s="2">
-        <v>35080</v>
-      </c>
-      <c r="E109" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F109" t="s">
-        <v>449</v>
-      </c>
-      <c r="J109" s="2">
-        <v>44250</v>
-      </c>
-      <c r="L109" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL109" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM109" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN109" s="2">
-        <v>44250</v>
-      </c>
-      <c r="BH109" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI109" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>352168672678</v>
-      </c>
-      <c r="B110" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C110" t="s">
-        <v>471</v>
-      </c>
-      <c r="D110" s="2">
-        <v>22142</v>
-      </c>
-      <c r="E110" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F110" t="s">
-        <v>472</v>
-      </c>
-      <c r="J110" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L110" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL110" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM110" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN110" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH110" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI110" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>352168676267</v>
-      </c>
-      <c r="B111" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C111" t="s">
-        <v>473</v>
-      </c>
-      <c r="D111" s="2">
-        <v>32354</v>
-      </c>
-      <c r="E111" s="2">
-        <v>44244</v>
-      </c>
-      <c r="F111" t="s">
-        <v>472</v>
-      </c>
-      <c r="J111" s="2">
-        <v>44252</v>
-      </c>
-      <c r="K111" t="s">
-        <v>64</v>
-      </c>
-      <c r="L111" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL111" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM111" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN111" s="2">
-        <v>44252</v>
-      </c>
-      <c r="AO111" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD111" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE111" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF111" s="2">
-        <v>44267</v>
-      </c>
-      <c r="BH111" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI111" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>352168686180</v>
-      </c>
-      <c r="B112" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C112" t="s">
-        <v>474</v>
-      </c>
-      <c r="D112" s="2">
-        <v>43080</v>
-      </c>
-      <c r="E112" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F112" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD112" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE112" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF112" s="2">
-        <v>44267</v>
-      </c>
-      <c r="BH112" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>352168689818</v>
-      </c>
-      <c r="B113" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C113" t="s">
-        <v>475</v>
-      </c>
-      <c r="D113" s="2">
-        <v>26628</v>
-      </c>
-      <c r="E113" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J113" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L113" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL113" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM113" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN113" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH113" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>352168691736</v>
-      </c>
-      <c r="B114" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C114" t="s">
-        <v>476</v>
-      </c>
-      <c r="D114" s="2">
-        <v>27742</v>
-      </c>
-      <c r="E114" s="2">
-        <v>44245</v>
-      </c>
-      <c r="F114" t="s">
-        <v>477</v>
-      </c>
-      <c r="J114" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L114" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL114" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM114" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN114" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH114" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI114" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>352168696819</v>
-      </c>
-      <c r="B115" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C115" t="s">
-        <v>478</v>
-      </c>
-      <c r="D115" s="2">
-        <v>28064</v>
-      </c>
-      <c r="E115" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F115" t="s">
-        <v>317</v>
-      </c>
-      <c r="J115" s="2">
-        <v>44252</v>
-      </c>
-      <c r="L115" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL115" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM115" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN115" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BH115" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI115" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>352168714447</v>
-      </c>
-      <c r="B116" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C116" t="s">
-        <v>479</v>
-      </c>
-      <c r="D116" s="2">
-        <v>25146</v>
-      </c>
-      <c r="E116" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F116" t="s">
-        <v>179</v>
-      </c>
-      <c r="J116" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L116" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL116" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM116" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN116" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH116" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI116" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>352168714629</v>
-      </c>
-      <c r="B117" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C117" t="s">
-        <v>480</v>
-      </c>
-      <c r="D117" s="2">
-        <v>30233</v>
-      </c>
-      <c r="E117" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F117" t="s">
-        <v>77</v>
-      </c>
-      <c r="J117" s="2">
-        <v>44252</v>
-      </c>
-      <c r="L117" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL117" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM117" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN117" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BH117" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI117" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>352168715619</v>
-      </c>
-      <c r="B118" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C118" t="s">
-        <v>481</v>
-      </c>
-      <c r="D118" s="2">
-        <v>32335</v>
-      </c>
-      <c r="E118" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F118" t="s">
-        <v>482</v>
-      </c>
-      <c r="J118" s="2">
-        <v>44251</v>
-      </c>
-      <c r="L118" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL118" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM118" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN118" s="2">
-        <v>44251</v>
-      </c>
-      <c r="BH118" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI118" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>352168720876</v>
-      </c>
-      <c r="B119" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C119" t="s">
-        <v>483</v>
-      </c>
-      <c r="D119" s="2">
-        <v>31766</v>
-      </c>
-      <c r="E119" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F119" t="s">
-        <v>484</v>
-      </c>
-      <c r="J119" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L119" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL119" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN119" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH119" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>352168725498</v>
-      </c>
-      <c r="B120" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C120" t="s">
-        <v>485</v>
-      </c>
-      <c r="D120" s="2">
-        <v>39699</v>
-      </c>
-      <c r="E120" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F120" t="s">
-        <v>150</v>
-      </c>
-      <c r="J120" s="2">
-        <v>44252</v>
-      </c>
-      <c r="L120" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL120" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM120" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN120" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BH120" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI120" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>352168728886</v>
-      </c>
-      <c r="B121" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C121" t="s">
-        <v>486</v>
-      </c>
-      <c r="D121" s="2">
-        <v>32860</v>
-      </c>
-      <c r="E121" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F121" t="s">
-        <v>487</v>
-      </c>
-      <c r="J121" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L121" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL121" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM121" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN121" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH121" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI121" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>352168730544</v>
-      </c>
-      <c r="B122" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C122" t="s">
-        <v>488</v>
-      </c>
-      <c r="D122" s="2">
-        <v>25717</v>
-      </c>
-      <c r="E122" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F122" t="s">
-        <v>489</v>
-      </c>
-      <c r="J122" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM122" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN122" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH122" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI122" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>352168734595</v>
-      </c>
-      <c r="B123" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C123" t="s">
-        <v>490</v>
-      </c>
-      <c r="D123" s="2">
-        <v>17070</v>
-      </c>
-      <c r="E123" s="2">
-        <v>44245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>314</v>
-      </c>
-      <c r="J123" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L123" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL123" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM123" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN123" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH123" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI123" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>352168746066</v>
-      </c>
-      <c r="B124" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C124" t="s">
-        <v>491</v>
-      </c>
-      <c r="D124" s="2">
-        <v>36833</v>
-      </c>
-      <c r="E124" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J124" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L124" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL124" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN124" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH124" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI124" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>352168747575</v>
-      </c>
-      <c r="B125" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C125" t="s">
-        <v>492</v>
-      </c>
-      <c r="D125" s="2">
-        <v>32738</v>
-      </c>
-      <c r="E125" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F125" t="s">
-        <v>123</v>
-      </c>
-      <c r="J125" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L125" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL125" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM125" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN125" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH125" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI125" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>352168748560</v>
-      </c>
-      <c r="B126" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C126" t="s">
-        <v>493</v>
-      </c>
-      <c r="D126" s="2">
-        <v>40332</v>
-      </c>
-      <c r="E126" s="2">
-        <v>44244</v>
-      </c>
-      <c r="F126" t="s">
-        <v>494</v>
-      </c>
-      <c r="J126" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L126" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL126" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM126" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN126" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH126" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI126" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>352168756372</v>
-      </c>
-      <c r="B127" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C127" t="s">
-        <v>495</v>
-      </c>
-      <c r="D127" s="2">
-        <v>36665</v>
-      </c>
-      <c r="E127" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F127" t="s">
-        <v>496</v>
-      </c>
-      <c r="J127" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L127" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL127" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM127" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN127" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH127" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI127" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>352168756918</v>
-      </c>
-      <c r="B128" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C128" t="s">
-        <v>497</v>
-      </c>
-      <c r="D128" s="2">
-        <v>35866</v>
-      </c>
-      <c r="E128" s="2">
-        <v>44245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>269</v>
-      </c>
-      <c r="J128" s="2">
-        <v>44252</v>
-      </c>
-      <c r="L128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM128" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN128" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BH128" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI128" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>352168763350</v>
-      </c>
-      <c r="B129" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C129" t="s">
-        <v>498</v>
-      </c>
-      <c r="D129" s="2">
-        <v>23791</v>
-      </c>
-      <c r="E129" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F129" t="s">
-        <v>84</v>
-      </c>
-      <c r="J129" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L129" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL129" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM129" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN129" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH129" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI129" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>352168773885</v>
-      </c>
-      <c r="B130" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C130" t="s">
-        <v>499</v>
-      </c>
-      <c r="D130" s="2">
-        <v>32177</v>
-      </c>
-      <c r="E130" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F130" t="s">
-        <v>500</v>
-      </c>
-      <c r="J130" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L130" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL130" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM130" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN130" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH130" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI130" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>352168779186</v>
-      </c>
-      <c r="B131" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C131" t="s">
-        <v>501</v>
-      </c>
-      <c r="D131" s="2">
-        <v>41019</v>
-      </c>
-      <c r="E131" s="2">
-        <v>44253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH131" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI131" s="2">
-        <v>44253</v>
-      </c>
-      <c r="AJ131" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL131" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM131" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN131" s="2">
-        <v>44253</v>
-      </c>
-      <c r="AO131" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD131" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE131" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF131" s="2">
-        <v>44319</v>
-      </c>
-      <c r="BH131" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI131" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>352168780393</v>
-      </c>
-      <c r="B132" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C132" t="s">
-        <v>502</v>
-      </c>
-      <c r="D132" s="2">
-        <v>42512</v>
-      </c>
-      <c r="E132" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F132" t="s">
-        <v>84</v>
-      </c>
-      <c r="J132" s="2">
-        <v>44253</v>
-      </c>
-      <c r="K132" t="s">
-        <v>64</v>
-      </c>
-      <c r="L132" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL132" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM132" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN132" s="2">
-        <v>44253</v>
-      </c>
-      <c r="AO132" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD132" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE132" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF132" s="2">
-        <v>44273</v>
-      </c>
-      <c r="BH132" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI132" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="133" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>352168782779</v>
-      </c>
-      <c r="B133" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C133" t="s">
-        <v>503</v>
-      </c>
-      <c r="D133" s="2">
-        <v>35618</v>
-      </c>
-      <c r="E133" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F133" t="s">
-        <v>504</v>
-      </c>
-      <c r="J133" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L133" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL133" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN133" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH133" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI133" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>352168782864</v>
-      </c>
-      <c r="B134" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C134" t="s">
-        <v>505</v>
-      </c>
-      <c r="D134" s="2">
-        <v>18925</v>
-      </c>
-      <c r="E134" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F134" t="s">
-        <v>84</v>
-      </c>
-      <c r="J134" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L134" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL134" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM134" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN134" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH134" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI134" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="135" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>352168783690</v>
-      </c>
-      <c r="B135" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C135" t="s">
-        <v>506</v>
-      </c>
-      <c r="D135" s="2">
-        <v>25178</v>
-      </c>
-      <c r="E135" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F135" t="s">
-        <v>507</v>
-      </c>
-      <c r="J135" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L135" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL135" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN135" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH135" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI135" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="136" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>352168786227</v>
-      </c>
-      <c r="B136" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C136" t="s">
-        <v>508</v>
-      </c>
-      <c r="D136" s="2">
-        <v>15018</v>
-      </c>
-      <c r="E136" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F136" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH136" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI136" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="137" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>352168790594</v>
-      </c>
-      <c r="B137" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C137" t="s">
-        <v>509</v>
-      </c>
-      <c r="D137" s="2">
-        <v>42375</v>
-      </c>
-      <c r="E137" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F137" t="s">
-        <v>62</v>
-      </c>
-      <c r="J137" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L137" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL137" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM137" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN137" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH137" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI137" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>352168791301</v>
-      </c>
-      <c r="B138" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C138" t="s">
-        <v>510</v>
-      </c>
-      <c r="D138" s="2">
-        <v>37088</v>
-      </c>
-      <c r="E138" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F138" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE138" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF138" s="2">
-        <v>44247</v>
-      </c>
-      <c r="AG138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL138" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM138" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN138" s="2">
-        <v>44247</v>
-      </c>
-      <c r="AO138" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH138" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI138" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="139" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>352168792706</v>
-      </c>
-      <c r="B139" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C139" t="s">
-        <v>511</v>
-      </c>
-      <c r="D139" s="2">
-        <v>34970</v>
-      </c>
-      <c r="E139" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F139" t="s">
-        <v>223</v>
-      </c>
-      <c r="BH139" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI139" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="140" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>352168795032</v>
-      </c>
-      <c r="B140" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C140" t="s">
-        <v>512</v>
-      </c>
-      <c r="D140" s="2">
-        <v>21253</v>
-      </c>
-      <c r="E140" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F140" t="s">
-        <v>513</v>
-      </c>
-      <c r="BH140" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI140" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="141" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>352168795910</v>
-      </c>
-      <c r="B141" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C141" t="s">
-        <v>514</v>
-      </c>
-      <c r="D141" s="2">
-        <v>32678</v>
-      </c>
-      <c r="E141" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F141" t="s">
-        <v>515</v>
-      </c>
-      <c r="J141" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L141" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL141" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM141" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN141" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH141" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI141" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>352168796026</v>
-      </c>
-      <c r="B142" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C142" t="s">
-        <v>516</v>
-      </c>
-      <c r="D142" s="2">
-        <v>38446</v>
-      </c>
-      <c r="E142" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F142" t="s">
-        <v>517</v>
-      </c>
-      <c r="J142" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L142" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL142" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM142" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN142" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH142" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI142" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>352168796154</v>
-      </c>
-      <c r="B143" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C143" t="s">
-        <v>518</v>
-      </c>
-      <c r="D143" s="2">
-        <v>31004</v>
-      </c>
-      <c r="E143" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F143" t="s">
-        <v>333</v>
-      </c>
-      <c r="J143" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM143" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN143" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH143" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI143" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>352168796747</v>
-      </c>
-      <c r="B144" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C144" t="s">
-        <v>519</v>
-      </c>
-      <c r="D144" s="2">
-        <v>31496</v>
-      </c>
-      <c r="E144" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F144" t="s">
-        <v>335</v>
-      </c>
-      <c r="J144" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L144" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL144" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM144" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN144" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH144" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>352168798361</v>
-      </c>
-      <c r="B145" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C145" t="s">
-        <v>520</v>
-      </c>
-      <c r="D145" s="2">
-        <v>29700</v>
-      </c>
-      <c r="E145" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F145" t="s">
-        <v>208</v>
-      </c>
-      <c r="J145" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L145" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL145" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM145" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN145" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH145" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI145" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>352168798567</v>
-      </c>
-      <c r="B146" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C146" t="s">
-        <v>521</v>
-      </c>
-      <c r="D146" s="2">
-        <v>28700</v>
-      </c>
-      <c r="E146" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F146" t="s">
-        <v>522</v>
-      </c>
-      <c r="J146" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L146" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL146" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM146" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN146" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH146" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI146" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>352168799922</v>
-      </c>
-      <c r="B147" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C147" t="s">
-        <v>523</v>
-      </c>
-      <c r="D147" s="2">
-        <v>36267</v>
-      </c>
-      <c r="E147" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F147" t="s">
-        <v>524</v>
-      </c>
-      <c r="BH147" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI147" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>352168800543</v>
-      </c>
-      <c r="B148" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C148" t="s">
-        <v>525</v>
-      </c>
-      <c r="D148" s="2">
-        <v>29745</v>
-      </c>
-      <c r="E148" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F148" t="s">
-        <v>116</v>
-      </c>
-      <c r="J148" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L148" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL148" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM148" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN148" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH148" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI148" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>352168800916</v>
-      </c>
-      <c r="B149" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C149" t="s">
-        <v>526</v>
-      </c>
-      <c r="D149" s="2">
-        <v>36062</v>
-      </c>
-      <c r="E149" s="2">
-        <v>44247</v>
-      </c>
-      <c r="F149" t="s">
-        <v>527</v>
-      </c>
-      <c r="BH149" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI149" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>352168801547</v>
-      </c>
-      <c r="B150" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C150" t="s">
-        <v>528</v>
-      </c>
-      <c r="D150" s="2">
-        <v>18331</v>
-      </c>
-      <c r="E150" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F150" t="s">
-        <v>236</v>
-      </c>
-      <c r="J150" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L150" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL150" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM150" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN150" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH150" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI150" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>352168805280</v>
-      </c>
-      <c r="B151" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C151" t="s">
-        <v>529</v>
-      </c>
-      <c r="D151" s="2">
-        <v>23671</v>
-      </c>
-      <c r="E151" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F151" t="s">
-        <v>211</v>
-      </c>
-      <c r="J151" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L151" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL151" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM151" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN151" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH151" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI151" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>352168806320</v>
-      </c>
-      <c r="B152" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C152" t="s">
-        <v>530</v>
-      </c>
-      <c r="D152" s="2">
-        <v>34430</v>
-      </c>
-      <c r="E152" s="2">
-        <v>44245</v>
-      </c>
-      <c r="F152" t="s">
-        <v>531</v>
-      </c>
-      <c r="L152" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL152" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM152" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH152" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI152" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>352168810745</v>
-      </c>
-      <c r="B153" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C153" t="s">
-        <v>532</v>
-      </c>
-      <c r="D153" s="2">
-        <v>29477</v>
-      </c>
-      <c r="E153" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F153" t="s">
-        <v>156</v>
-      </c>
-      <c r="J153" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L153" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL153" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM153" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN153" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH153" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI153" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="154" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>352168810974</v>
-      </c>
-      <c r="B154" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C154" t="s">
-        <v>533</v>
-      </c>
-      <c r="D154" s="2">
-        <v>35335</v>
-      </c>
-      <c r="E154" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F154" t="s">
-        <v>534</v>
-      </c>
-      <c r="J154" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L154" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL154" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM154" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN154" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH154" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI154" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>352168812402</v>
-      </c>
-      <c r="B155" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C155" t="s">
-        <v>535</v>
-      </c>
-      <c r="D155" s="2">
-        <v>23204</v>
-      </c>
-      <c r="E155" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F155" t="s">
-        <v>167</v>
-      </c>
-      <c r="J155" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L155" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL155" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM155" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN155" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH155" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI155" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>352168813324</v>
-      </c>
-      <c r="B156" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C156" t="s">
-        <v>536</v>
-      </c>
-      <c r="D156" s="2">
-        <v>33732</v>
-      </c>
-      <c r="E156" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F156" t="s">
-        <v>375</v>
-      </c>
-      <c r="J156" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L156" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL156" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM156" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN156" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH156" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI156" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>352168814162</v>
-      </c>
-      <c r="B157" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C157" t="s">
-        <v>537</v>
-      </c>
-      <c r="D157" s="2">
-        <v>32017</v>
-      </c>
-      <c r="E157" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F157" t="s">
-        <v>324</v>
-      </c>
-      <c r="J157" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L157" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL157" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM157" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN157" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH157" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI157" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>352168814764</v>
-      </c>
-      <c r="B158" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C158" t="s">
-        <v>538</v>
-      </c>
-      <c r="D158" s="2">
-        <v>19627</v>
-      </c>
-      <c r="E158" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F158" t="s">
-        <v>539</v>
-      </c>
-      <c r="J158" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L158" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL158" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM158" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN158" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH158" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI158" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>352168821754</v>
-      </c>
-      <c r="B159" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C159" t="s">
-        <v>540</v>
-      </c>
-      <c r="D159" s="2">
-        <v>44254</v>
-      </c>
-      <c r="E159" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F159" t="s">
-        <v>541</v>
-      </c>
-      <c r="J159" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L159" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL159" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM159" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN159" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH159" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI159" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="160" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>352168822422</v>
-      </c>
-      <c r="B160" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C160" t="s">
-        <v>542</v>
-      </c>
-      <c r="D160" s="2">
-        <v>29113</v>
-      </c>
-      <c r="E160" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F160" t="s">
-        <v>531</v>
-      </c>
-      <c r="J160" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L160" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL160" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM160" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN160" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH160" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI160" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>352168825675</v>
-      </c>
-      <c r="B161" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C161" t="s">
-        <v>543</v>
-      </c>
-      <c r="D161" s="2">
-        <v>18401</v>
-      </c>
-      <c r="E161" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F161" t="s">
-        <v>449</v>
-      </c>
-      <c r="J161" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L161" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL161" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM161" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN161" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH161" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI161" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="162" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>352168827674</v>
-      </c>
-      <c r="B162" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C162" t="s">
-        <v>544</v>
-      </c>
-      <c r="D162" s="2">
-        <v>42046</v>
-      </c>
-      <c r="E162" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F162" t="s">
-        <v>545</v>
-      </c>
-      <c r="J162" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L162" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL162" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM162" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN162" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH162" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI162" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>352168828572</v>
-      </c>
-      <c r="B163" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C163" t="s">
-        <v>546</v>
-      </c>
-      <c r="D163" s="2">
-        <v>41262</v>
-      </c>
-      <c r="E163" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F163" t="s">
-        <v>381</v>
-      </c>
-      <c r="J163" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L163" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL163" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM163" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN163" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH163" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI163" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="164" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>352168829702</v>
-      </c>
-      <c r="B164" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C164" t="s">
-        <v>547</v>
-      </c>
-      <c r="D164" s="2">
-        <v>37308</v>
-      </c>
-      <c r="E164" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F164" t="s">
-        <v>123</v>
-      </c>
-      <c r="J164" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L164" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL164" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM164" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN164" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH164" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI164" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="165" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>352168830133</v>
-      </c>
-      <c r="B165" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C165" t="s">
-        <v>548</v>
-      </c>
-      <c r="D165" s="2">
-        <v>35580</v>
-      </c>
-      <c r="E165" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F165" t="s">
-        <v>549</v>
-      </c>
-      <c r="J165" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L165" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL165" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM165" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN165" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH165" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI165" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>352168830340</v>
-      </c>
-      <c r="B166" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C166" t="s">
-        <v>550</v>
-      </c>
-      <c r="D166" s="2">
-        <v>30493</v>
-      </c>
-      <c r="E166" s="2">
-        <v>44248</v>
-      </c>
-      <c r="F166" t="s">
-        <v>551</v>
-      </c>
-      <c r="J166" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L166" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL166" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM166" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN166" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH166" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI166" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="167" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>352168831868</v>
-      </c>
-      <c r="B167" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C167" t="s">
-        <v>552</v>
-      </c>
-      <c r="D167" s="2">
-        <v>15885</v>
-      </c>
-      <c r="E167" s="2">
-        <v>44240</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
-      </c>
-      <c r="S167" t="s">
-        <v>81</v>
-      </c>
-      <c r="T167" s="2">
-        <v>44254</v>
-      </c>
-      <c r="V167" t="s">
-        <v>81</v>
-      </c>
-      <c r="W167" s="2">
-        <v>44254</v>
-      </c>
-      <c r="AL167" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM167" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN167" s="2">
-        <v>44254</v>
-      </c>
-      <c r="AR167" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS167" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT167" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH167" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI167" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="168" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>352168835721</v>
-      </c>
-      <c r="B168" s="2">
-        <v>44254</v>
-      </c>
-      <c r="C168" t="s">
-        <v>553</v>
-      </c>
-      <c r="D168" s="2">
-        <v>19176</v>
-      </c>
-      <c r="E168" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F168" t="s">
-        <v>554</v>
-      </c>
-      <c r="J168" s="2">
-        <v>44254</v>
-      </c>
-      <c r="L168" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL168" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM168" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN168" s="2">
-        <v>44254</v>
-      </c>
-      <c r="BH168" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI168" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="169" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>352168856710</v>
-      </c>
-      <c r="B169" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C169" t="s">
-        <v>555</v>
-      </c>
-      <c r="D169" s="2">
-        <v>30153</v>
-      </c>
-      <c r="E169" s="2">
-        <v>44237</v>
-      </c>
-      <c r="F169" t="s">
-        <v>84</v>
-      </c>
-      <c r="J169" s="2">
-        <v>44253</v>
-      </c>
-      <c r="L169" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL169" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM169" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN169" s="2">
-        <v>44253</v>
-      </c>
-      <c r="BH169" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI169" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="170" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>352168961612</v>
-      </c>
-      <c r="B170" s="2">
-        <v>44244</v>
-      </c>
-      <c r="C170" t="s">
-        <v>556</v>
-      </c>
-      <c r="D170" s="2">
-        <v>32406</v>
-      </c>
-      <c r="E170" s="2">
-        <v>44244</v>
-      </c>
-      <c r="F170" t="s">
-        <v>211</v>
-      </c>
-      <c r="J170" s="2">
-        <v>44248</v>
-      </c>
-      <c r="L170" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL170" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM170" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN170" s="2">
-        <v>44248</v>
-      </c>
-      <c r="BH170" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI170" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="171" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>352169610231</v>
-      </c>
-      <c r="B171" s="2">
-        <v>44241</v>
-      </c>
-      <c r="C171" t="s">
-        <v>557</v>
-      </c>
-      <c r="D171" s="2">
-        <v>22132</v>
-      </c>
-      <c r="E171" s="2">
-        <v>44238</v>
-      </c>
-      <c r="F171" t="s">
-        <v>558</v>
-      </c>
-      <c r="J171" s="2">
-        <v>44252</v>
-      </c>
-      <c r="L171" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL171" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM171" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN171" s="2">
-        <v>44252</v>
-      </c>
-      <c r="BH171" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI171" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="172" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>352170860641</v>
-      </c>
-      <c r="B172" s="2">
-        <v>44244</v>
-      </c>
-      <c r="C172" t="s">
-        <v>559</v>
-      </c>
-      <c r="D172" s="2">
-        <v>30867</v>
-      </c>
-      <c r="E172" s="2">
-        <v>44237</v>
-      </c>
-      <c r="F172" t="s">
-        <v>183</v>
-      </c>
-      <c r="J172" s="2">
-        <v>44244</v>
-      </c>
-      <c r="L172" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL172" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM172" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN172" s="2">
-        <v>44244</v>
-      </c>
-      <c r="BH172" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI172" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>352171548033</v>
-      </c>
-      <c r="B173" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C173" t="s">
-        <v>560</v>
-      </c>
-      <c r="D173" s="2">
-        <v>35557</v>
-      </c>
-      <c r="E173" s="2">
-        <v>44233</v>
-      </c>
-      <c r="F173" t="s">
-        <v>211</v>
-      </c>
-      <c r="J173" s="2">
-        <v>44238</v>
-      </c>
-      <c r="L173" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL173" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM173" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN173" s="2">
-        <v>44238</v>
-      </c>
-      <c r="BH173" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI173" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="174" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>352174355794</v>
-      </c>
-      <c r="B174" s="2">
-        <v>44239</v>
-      </c>
-      <c r="C174" t="s">
-        <v>561</v>
-      </c>
-      <c r="D174" s="2">
-        <v>35521</v>
-      </c>
-      <c r="E174" s="2">
-        <v>44239</v>
-      </c>
-      <c r="F174" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH174" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI174" s="2">
-        <v>44239</v>
-      </c>
-      <c r="AJ174" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL174" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM174" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN174" s="2">
-        <v>44239</v>
-      </c>
-      <c r="AO174" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH174" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI174" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="175" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>4120066035058</v>
-      </c>
-      <c r="B175" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C175" t="s">
-        <v>562</v>
-      </c>
-      <c r="D175" s="2">
-        <v>20217</v>
-      </c>
-      <c r="E175" s="2">
-        <v>44237</v>
-      </c>
-      <c r="F175" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE175" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF175" s="2">
-        <v>44237</v>
-      </c>
-      <c r="AG175" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL175" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM175" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN175" s="2">
-        <v>44237</v>
-      </c>
-      <c r="AO175" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH175" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI175" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="176" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>4120066059291</v>
-      </c>
-      <c r="B176" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C176" t="s">
-        <v>563</v>
-      </c>
-      <c r="D176" s="2">
-        <v>30730</v>
-      </c>
-      <c r="E176" s="2">
-        <v>44237</v>
-      </c>
-      <c r="F176" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE176" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF176" s="2">
-        <v>44237</v>
-      </c>
-      <c r="AG176" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL176" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM176" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN176" s="2">
-        <v>44237</v>
-      </c>
-      <c r="AO176" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH176" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI176" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>4120066064239</v>
-      </c>
-      <c r="B177" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C177" t="s">
-        <v>564</v>
-      </c>
-      <c r="D177" s="2">
-        <v>23378</v>
-      </c>
-      <c r="E177" s="2">
-        <v>44236</v>
-      </c>
-      <c r="F177" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE177" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF177" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AG177" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL177" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM177" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN177" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AO177" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH177" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI177" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="178" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>4120066064617</v>
-      </c>
-      <c r="B178" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C178" t="s">
-        <v>565</v>
-      </c>
-      <c r="D178" s="2">
-        <v>25645</v>
-      </c>
-      <c r="E178" s="2">
-        <v>44236</v>
-      </c>
-      <c r="F178" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE178" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF178" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AG178" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL178" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM178" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN178" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AO178" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH178" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI178" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>4120066065048</v>
-      </c>
-      <c r="B179" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C179" t="s">
-        <v>566</v>
-      </c>
-      <c r="D179" s="2">
-        <v>25409</v>
-      </c>
-      <c r="E179" s="2">
-        <v>44236</v>
-      </c>
-      <c r="F179" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE179" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF179" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AG179" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL179" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM179" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN179" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AO179" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH179" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI179" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>4120066086994</v>
-      </c>
-      <c r="B180" s="2">
-        <v>44238</v>
-      </c>
-      <c r="C180" t="s">
-        <v>567</v>
-      </c>
-      <c r="D180" s="2">
-        <v>36936</v>
-      </c>
-      <c r="E180" s="2">
-        <v>44136</v>
-      </c>
-      <c r="F180" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE180" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF180" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AG180" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL180" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM180" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN180" s="2">
-        <v>44236</v>
-      </c>
-      <c r="AO180" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH180" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI180" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>4120066996570</v>
-      </c>
-      <c r="B181" s="2">
-        <v>44243</v>
-      </c>
-      <c r="C181" t="s">
-        <v>568</v>
-      </c>
-      <c r="D181" s="2">
-        <v>32402</v>
-      </c>
-      <c r="E181" s="2">
-        <v>44238</v>
-      </c>
-      <c r="F181" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE181" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF181" s="2">
-        <v>44238</v>
-      </c>
-      <c r="AG181" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL181" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM181" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN181" s="2">
-        <v>44238</v>
-      </c>
-      <c r="AO181" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH181" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI181" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="182" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>4120067262625</v>
-      </c>
-      <c r="B182" s="2">
-        <v>44244</v>
-      </c>
-      <c r="C182" t="s">
-        <v>569</v>
-      </c>
-      <c r="D182" s="2">
-        <v>25832</v>
-      </c>
-      <c r="E182" s="2">
-        <v>44243</v>
-      </c>
-      <c r="F182" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE182" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF182" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AG182" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL182" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM182" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN182" s="2">
-        <v>44243</v>
-      </c>
-      <c r="AO182" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH182" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI182" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="183" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>4120068441628</v>
-      </c>
-      <c r="B183" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C183" t="s">
-        <v>570</v>
-      </c>
-      <c r="D183" s="2">
-        <v>29497</v>
-      </c>
-      <c r="E183" s="2">
-        <v>44249</v>
-      </c>
-      <c r="F183" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE183" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF183" s="2">
-        <v>44249</v>
-      </c>
-      <c r="AG183" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL183" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM183" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN183" s="2">
-        <v>44249</v>
-      </c>
-      <c r="AO183" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH183" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI183" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>4120068523839</v>
-      </c>
-      <c r="B184" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C184" t="s">
-        <v>571</v>
-      </c>
-      <c r="D184" s="2">
-        <v>33667</v>
-      </c>
-      <c r="E184" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F184" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH184" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI184" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AJ184" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL184" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM184" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN184" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AO184" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH184" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI184" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>4120068537474</v>
-      </c>
-      <c r="B185" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C185" t="s">
-        <v>572</v>
-      </c>
-      <c r="D185" s="2">
-        <v>24473</v>
-      </c>
-      <c r="E185" s="2">
-        <v>44251</v>
-      </c>
-      <c r="F185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE185" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF185" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AG185" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL185" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM185" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN185" s="2">
-        <v>44251</v>
-      </c>
-      <c r="AO185" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH185" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI185" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>4120068563945</v>
-      </c>
-      <c r="B186" s="2">
-        <v>44252</v>
-      </c>
-      <c r="C186" t="s">
-        <v>573</v>
-      </c>
-      <c r="D186" s="2">
-        <v>24445</v>
-      </c>
-      <c r="E186" s="2">
-        <v>44250</v>
-      </c>
-      <c r="F186" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE186" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF186" s="2">
-        <v>44250</v>
-      </c>
-      <c r="AG186" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL186" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM186" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN186" s="2">
-        <v>44250</v>
-      </c>
-      <c r="AO186" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH186" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI186" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>4120068692674</v>
-      </c>
-      <c r="B187" s="2">
-        <v>44253</v>
-      </c>
-      <c r="C187" t="s">
-        <v>574</v>
-      </c>
-      <c r="D187" s="2">
-        <v>24896</v>
-      </c>
-      <c r="E187" s="2">
-        <v>44252</v>
-      </c>
-      <c r="F187" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE187" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF187" s="2">
-        <v>44252</v>
-      </c>
-      <c r="AG187" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL187" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM187" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN187" s="2">
-        <v>44252</v>
-      </c>
-      <c r="AO187" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH187" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI187" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BI187"/>
+  <autoFilter ref="A1:BI101" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI112">
+    <sortCondition ref="C2:C112"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>